--- a/Documentation/ThreatModelingProcess/ASVS_Checklist_TruckMotion.xlsx
+++ b/Documentation/ThreatModelingProcess/ASVS_Checklist_TruckMotion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kcinp\Documents\MEI\DESOFS\desofs2024_M1C_3\Documentation\ThreatModelingProcess\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp-my.sharepoint.com/personal/1181600_isep_ipp_pt/Documents/DESOFS_REPORT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59BFD3A-A8C5-4D94-B66B-D32648C38598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="455" documentId="13_ncr:1_{F59BFD3A-A8C5-4D94-B66B-D32648C38598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{730DE3C1-F4F5-8347-920F-2B64161FBBF1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26920" tabRatio="500" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Authentication" sheetId="3" r:id="rId3"/>
     <sheet name="Session Management" sheetId="4" r:id="rId4"/>
     <sheet name="Access Control" sheetId="5" r:id="rId5"/>
-    <sheet name="Validation, Sanitization and En" sheetId="6" r:id="rId6"/>
-    <sheet name="Stored Cryptography" sheetId="7" r:id="rId7"/>
+    <sheet name="Stored Cryptography" sheetId="7" r:id="rId6"/>
+    <sheet name="Validation, Sanitization and En" sheetId="6" r:id="rId7"/>
     <sheet name="Error Handling and Logging" sheetId="8" r:id="rId8"/>
     <sheet name="Data Protection" sheetId="9" r:id="rId9"/>
     <sheet name="Communication" sheetId="10" r:id="rId10"/>
@@ -29,8 +29,11 @@
     <sheet name="API and Web Service" sheetId="14" r:id="rId14"/>
     <sheet name="Configuration" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="719">
   <si>
     <t>Security Category</t>
   </si>
@@ -179,6 +182,9 @@
   </si>
   <si>
     <t>Verify implementation of centralized, simple (economy of design), vetted, secure, and reusable security controls to avoid duplicate, missing, ineffective, or insecure controls. ([C10](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
+  </si>
+  <si>
+    <t>Non-valid</t>
   </si>
   <si>
     <t>1.1.7</t>
@@ -1509,6 +1515,11 @@
     <t>Verify the application minimizes the number of parameters in a request, such as hidden fields, Ajax variables, cookies and header values.</t>
   </si>
   <si>
+    <t>Having many parameters vs JSON is actually SAFER since you do not need to utilize a server-side JSON parser.
+I again assert this requirement is nonsense. Many apps require lots of parameters for good reason.
+I do see EXTRA parameters the app does not need as a good intrusion detection point. But many parameters is just how some apps work, and that does not add a security risk in an of itself.</t>
+  </si>
+  <si>
     <t>8.1.4</t>
   </si>
   <si>
@@ -1521,6 +1532,9 @@
     <t>Verify that regular backups of important data are performed and that test restoration of data is performed.</t>
   </si>
   <si>
+    <t>Cron job that does backups every 24 hour</t>
+  </si>
+  <si>
     <t>8.1.6</t>
   </si>
   <si>
@@ -1557,6 +1571,9 @@
     <t>Verify that sensitive data is sent to the server in the HTTP message body or headers, and that query string parameters from any HTTP verb do not contain sensitive data.</t>
   </si>
   <si>
+    <t>Will use HTTPS</t>
+  </si>
+  <si>
     <t>8.3.2</t>
   </si>
   <si>
@@ -1608,6 +1625,9 @@
     <t>Verify that TLS is used for all client connectivity, and does not fall back to insecure or unencrypted communications. ([C8](https://owasp.org/www-project-proactive-controls/#div-numbering))</t>
   </si>
   <si>
+    <t>Our application should run in port 443, is the common port used for encrypted HTTPS traffic</t>
+  </si>
+  <si>
     <t>9.1.2</t>
   </si>
   <si>
@@ -2148,7 +2168,82 @@
     <t>Verify that HTTP headers added by a trusted proxy or SSO devices, such as a bearer token, are authenticated by the application.</t>
   </si>
   <si>
-    <t>Non-valid</t>
+    <t>rgpd</t>
+  </si>
+  <si>
+    <t>Use Case 13</t>
+  </si>
+  <si>
+    <t>Simple client-side code</t>
+  </si>
+  <si>
+    <t>using algorithm aes 256</t>
+  </si>
+  <si>
+    <t>An e-mail is sent</t>
+  </si>
+  <si>
+    <t>e-mail</t>
+  </si>
+  <si>
+    <t>Insufficient knowledge about this topic and time shortage.</t>
+  </si>
+  <si>
+    <t>In this phase we will not encrypt the delivery location but in the future we will.</t>
+  </si>
+  <si>
+    <t>AES 256 will be used</t>
+  </si>
+  <si>
+    <t>ZAP</t>
+  </si>
+  <si>
+    <t>Sonarqube</t>
+  </si>
+  <si>
+    <t>For some functionalities we will need GPS and camera access</t>
+  </si>
+  <si>
+    <t>Dependency track for back-end and JS modules</t>
+  </si>
+  <si>
+    <t>The app will be prepared to import images</t>
+  </si>
+  <si>
+    <t>We don't control the machines that run the app</t>
+  </si>
+  <si>
+    <t>At the moment, since the application wasn't created yet, it doesn't really make sense to make the list of dependencies</t>
+  </si>
+  <si>
+    <t>For this iteration, all the stages are being contemplated.</t>
+  </si>
+  <si>
+    <t>OWASP Threat Dragon</t>
+  </si>
+  <si>
+    <t>Use Case Diagram made by Visual Paradigm and a markdown file.</t>
+  </si>
+  <si>
+    <t>Non Functional, Functional, Secure Development and Requirements are specified.</t>
+  </si>
+  <si>
+    <t>Strong Enforcement - Complete Mediation</t>
+  </si>
+  <si>
+    <t>Issues are created.</t>
+  </si>
+  <si>
+    <t>GitHub Issues</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L0</t>
+  </si>
+  <si>
+    <t>L2</t>
   </si>
 </sst>
 </file>
@@ -2158,7 +2253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00,_€;\-#,##0.00,_€"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2246,6 +2341,12 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF102A43"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2920,7 +3021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3234,6 +3335,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3331,7 +3433,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
@@ -3425,7 +3527,7 @@
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3499,52 +3601,52 @@
             <c:numRef>
               <c:f>'ASVS Results'!$D$2:$D$16</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00,_€;\-#,##0.00,_€</c:formatCode>
+                <c:formatCode>#\ ##0.00\ _€;\-#\ ##0.00\ _€</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>87.5</c:v>
+                  <c:v>48.717948717948715</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>36.84210526315789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>76.923076923076934</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>66.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>61.53846153846154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>66.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>66.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>92.857142857142861</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>77.777777777777786</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>83.333333333333343</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.332103321033211</c:v>
+                  <c:v>61.776061776061773</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3604,7 +3706,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="74048637"/>
@@ -3655,7 +3757,7 @@
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17923522"/>
@@ -3692,7 +3794,7 @@
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3758,6 +3860,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4079,21 +4185,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A24" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="64.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="23.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="21" style="4" customWidth="1"/>
     <col min="4" max="4" width="25" style="4" customWidth="1"/>
     <col min="5" max="5" width="37" style="4" customWidth="1"/>
-    <col min="6" max="1024" width="8.88671875" style="4"/>
+    <col min="6" max="1024" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4116,17 +4222,19 @@
       </c>
       <c r="B2" s="9">
         <f>0+COUNTIF('Architecture, Design and Threat'!G2:G45,"Valid")</f>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C2" s="10">
         <f>COUNTIF('Architecture, Design and Threat'!G2:G45,"&lt;&gt;Not Applicable")</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D2" s="11">
         <f t="shared" ref="D2:D16" si="0">(B2/C2)*100</f>
-        <v>87.5</v>
-      </c>
-      <c r="E2" s="12"/>
+        <v>48.717948717948715</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="8" t="s">
@@ -4134,7 +4242,7 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF(Authentication!G2:G58,"Valid")</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C3" s="10">
         <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
@@ -4142,9 +4250,11 @@
       </c>
       <c r="D3" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="12"/>
+        <v>36.84210526315789</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8" t="s">
@@ -4152,17 +4262,19 @@
       </c>
       <c r="B4" s="9">
         <f>COUNTIF('Session Management'!G2:G21,"Valid")</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" s="10">
         <f>COUNTIF('Session Management'!G2:G21,"&lt;&gt;Not Applicable")</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="12"/>
+        <v>76.923076923076934</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8" t="s">
@@ -4170,7 +4282,7 @@
       </c>
       <c r="B5" s="9">
         <f>COUNTIF('Access Control'!G2:G11,"Valid")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" s="10">
         <f>COUNTIF('Access Control'!G2:G11,"&lt;&gt;Not Applicable")</f>
@@ -4178,9 +4290,11 @@
       </c>
       <c r="D5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="12"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="8" t="s">
@@ -4188,17 +4302,19 @@
       </c>
       <c r="B6" s="9">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"Valid")</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C6" s="10">
         <f>COUNTIF('Validation, Sanitization and En'!G2:G31,"&lt;&gt;Not Applicable")</f>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="12"/>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8" t="s">
@@ -4206,7 +4322,7 @@
       </c>
       <c r="B7" s="9">
         <f>COUNTIF('Stored Cryptography'!G2:G17,"Valid")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" s="10">
         <f>COUNTIF('Stored Cryptography'!G2:G17,"&lt;&gt;Not Applicable")</f>
@@ -4214,9 +4330,11 @@
       </c>
       <c r="D7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="12"/>
+        <v>56.25</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>716</v>
+      </c>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6">
@@ -4225,7 +4343,7 @@
       </c>
       <c r="B8" s="9">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"Valid")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10">
         <f>COUNTIF('Error Handling and Logging'!G2:G14,"&lt;&gt;Not Applicable")</f>
@@ -4233,9 +4351,11 @@
       </c>
       <c r="D8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="12"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8" t="s">
@@ -4243,17 +4363,19 @@
       </c>
       <c r="B9" s="9">
         <f>COUNTIF('Data Protection'!G2:G18,"Valid")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10">
         <f>COUNTIF('Data Protection'!G2:G18,"&lt;&gt;Not Applicable")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8" t="s">
@@ -4261,17 +4383,19 @@
       </c>
       <c r="B10" s="9">
         <f>COUNTIF(Communication!G2:G9,"Valid")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C10" s="10">
         <f>COUNTIF(Communication!G2:G9,"&lt;&gt;Not Applicable")</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="12"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8" t="s">
@@ -4279,7 +4403,7 @@
       </c>
       <c r="B11" s="9">
         <f>COUNTIF('Malicious Code'!G2:G11,"Valid")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C11" s="10">
         <f>COUNTIF('Malicious Code'!G2:G11,"&lt;&gt;Not Applicable")</f>
@@ -4287,9 +4411,11 @@
       </c>
       <c r="D11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="8" t="s">
@@ -4297,7 +4423,7 @@
       </c>
       <c r="B12" s="9">
         <f>COUNTIF('Business Logic'!G2:G9,"Valid")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C12" s="10">
         <f>COUNTIF('Business Logic'!G2:G9,"&lt;&gt;Not Applicable")</f>
@@ -4305,9 +4431,11 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
@@ -4315,17 +4443,19 @@
       </c>
       <c r="B13" s="9">
         <f>COUNTIF('Files and Resources'!G2:G16,"Valid")</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C13" s="10">
         <f>COUNTIF('Files and Resources'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="12"/>
+        <v>92.857142857142861</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
@@ -4333,17 +4463,19 @@
       </c>
       <c r="B14" s="9">
         <f>COUNTIF('API and Web Service'!G2:G16,"Valid")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C14" s="10">
         <f>COUNTIF('API and Web Service'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D14" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="12"/>
+        <v>77.777777777777786</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="8" t="s">
@@ -4351,7 +4483,7 @@
       </c>
       <c r="B15" s="9">
         <f>COUNTIF(Configuration!G2:G26,"Valid")</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C15" s="10">
         <f>COUNTIF(Configuration!G2:G26,"&lt;&gt;Not Applicable")</f>
@@ -4359,9 +4491,11 @@
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="12"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="8" t="s">
@@ -4369,17 +4503,19 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>10.332103321033211</v>
-      </c>
-      <c r="E16" s="12"/>
+        <v>61.776061776061773</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>717</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -4397,23 +4533,23 @@
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="37.33203125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="26"/>
-    <col min="3" max="5" width="8.88671875" style="60"/>
-    <col min="6" max="6" width="88.88671875" style="26" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="26"/>
+    <col min="2" max="2" width="8.83203125" style="26"/>
+    <col min="3" max="5" width="8.83203125" style="60"/>
+    <col min="6" max="6" width="88.83203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="26"/>
     <col min="8" max="8" width="28.33203125" style="26" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" style="26" customWidth="1"/>
     <col min="10" max="10" width="37.6640625" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.88671875" style="26"/>
+    <col min="11" max="1024" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -4446,11 +4582,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="122" t="s">
-        <v>505</v>
+      <c r="A2" s="123" t="s">
+        <v>509</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -4460,17 +4596,21 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>507</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>511</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="I2" s="50" t="s">
+        <v>512</v>
+      </c>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="31.2">
-      <c r="A3" s="122"/>
+    <row r="3" spans="1:10" ht="34">
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="C3" s="67">
         <v>1</v>
@@ -4480,17 +4620,21 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>509</v>
-      </c>
-      <c r="G3" s="29"/>
+        <v>514</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
-      <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="122"/>
+      <c r="J3" s="33" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="34">
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="C4" s="67">
         <v>1</v>
@@ -4500,19 +4644,21 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>511</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>516</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A5" s="122" t="s">
-        <v>512</v>
+      <c r="A5" s="123" t="s">
+        <v>517</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="C5" s="69">
         <v>2</v>
@@ -4522,17 +4668,19 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>514</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>519</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="62.4">
-      <c r="A6" s="122"/>
+    <row r="6" spans="1:10" ht="68">
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="C6" s="69">
         <v>2</v>
@@ -4542,17 +4690,19 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>516</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>521</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="122"/>
+    <row r="7" spans="1:10" ht="34">
+      <c r="A7" s="123"/>
       <c r="B7" s="63" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="C7" s="69">
         <v>2</v>
@@ -4562,17 +4712,19 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>518</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>523</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="31.2">
-      <c r="A8" s="122"/>
+    <row r="8" spans="1:10" ht="34">
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C8" s="69">
         <v>2</v>
@@ -4582,17 +4734,19 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>520</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>525</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="122"/>
+    <row r="9" spans="1:10" ht="17">
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="C9" s="96">
         <v>3</v>
@@ -4602,9 +4756,11 @@
       </c>
       <c r="E9" s="72"/>
       <c r="F9" s="82" t="s">
-        <v>522</v>
-      </c>
-      <c r="G9" s="36"/>
+        <v>527</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="38"/>
@@ -4637,20 +4793,20 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="31.33203125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="26"/>
-    <col min="3" max="5" width="8.88671875" style="60"/>
-    <col min="6" max="6" width="88.44140625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="26"/>
-    <col min="8" max="8" width="35.88671875" style="26" customWidth="1"/>
-    <col min="9" max="9" width="26.109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="26"/>
+    <col min="3" max="5" width="8.83203125" style="60"/>
+    <col min="6" max="6" width="88.5" style="26" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="26"/>
+    <col min="8" max="8" width="35.83203125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" style="26" customWidth="1"/>
     <col min="10" max="10" width="28.6640625" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.88671875" style="26"/>
+    <col min="11" max="1024" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="97" t="s">
         <v>20</v>
       </c>
@@ -4682,12 +4838,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="31.2">
+    <row r="2" spans="1:10" ht="34">
       <c r="A2" s="1" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="C2" s="98">
         <v>3</v>
@@ -4697,19 +4853,23 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>525</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>530</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
-      <c r="J2" s="66"/>
+      <c r="J2" s="66" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1">
-      <c r="A3" s="122" t="s">
-        <v>526</v>
+      <c r="A3" s="123" t="s">
+        <v>531</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C3" s="69">
         <v>2</v>
@@ -4719,17 +4879,19 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>528</v>
-      </c>
-      <c r="G3" s="29"/>
+        <v>533</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="122"/>
+    <row r="4" spans="1:10" ht="34">
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="C4" s="69">
         <v>2</v>
@@ -4739,17 +4901,21 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>530</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>535</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="I4" s="29" t="s">
+        <v>704</v>
+      </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="78">
-      <c r="A5" s="122"/>
+    <row r="5" spans="1:10" ht="68">
+      <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="C5" s="70">
         <v>3</v>
@@ -4759,17 +4925,21 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>532</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>537</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:10" ht="31.2">
-      <c r="A6" s="122"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="33" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="34">
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="C6" s="70">
         <v>3</v>
@@ -4779,17 +4949,21 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>534</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>539</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="122"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="33" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34">
+      <c r="A7" s="123"/>
       <c r="B7" s="63" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C7" s="70">
         <v>3</v>
@@ -4799,17 +4973,21 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>536</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>541</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="1:10" ht="31.2">
-      <c r="A8" s="122"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="33" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="34">
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="C8" s="70">
         <v>3</v>
@@ -4819,19 +4997,23 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>538</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>543</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="33"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="33" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="48" customHeight="1">
-      <c r="A9" s="122" t="s">
-        <v>539</v>
+      <c r="A9" s="123" t="s">
+        <v>544</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -4841,17 +5023,19 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>541</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>546</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="62.4">
-      <c r="A10" s="122"/>
+    <row r="10" spans="1:10" ht="51">
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="C10" s="67">
         <v>1</v>
@@ -4861,17 +5045,19 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>543</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>548</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="93.6">
-      <c r="A11" s="122"/>
+    <row r="11" spans="1:10" ht="85">
+      <c r="A11" s="123"/>
       <c r="B11" s="63" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C11" s="71">
         <v>1</v>
@@ -4881,9 +5067,11 @@
       </c>
       <c r="E11" s="35"/>
       <c r="F11" s="82" t="s">
-        <v>545</v>
-      </c>
-      <c r="G11" s="36"/>
+        <v>550</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="38"/>
@@ -4916,20 +5104,20 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="73" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="26"/>
-    <col min="3" max="5" width="8.88671875" style="60"/>
+    <col min="1" max="1" width="23.83203125" style="73" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="26"/>
+    <col min="3" max="5" width="8.83203125" style="60"/>
     <col min="6" max="6" width="71.33203125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="17.44140625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="26" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="34.44140625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="34.5" style="26" customWidth="1"/>
     <col min="10" max="10" width="37" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.88671875" style="26"/>
+    <col min="11" max="1024" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -4962,11 +5150,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="122" t="s">
-        <v>546</v>
+      <c r="A2" s="123" t="s">
+        <v>551</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -4976,17 +5164,19 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>548</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>553</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="122"/>
+    <row r="3" spans="1:10" ht="51">
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C3" s="67">
         <v>1</v>
@@ -4996,17 +5186,19 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>550</v>
-      </c>
-      <c r="G3" s="29"/>
+        <v>555</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="122"/>
+    <row r="4" spans="1:10" ht="34">
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C4" s="67">
         <v>1</v>
@@ -5016,17 +5208,19 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>552</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>557</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="122"/>
+    <row r="5" spans="1:10" ht="51">
+      <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C5" s="67">
         <v>1</v>
@@ -5036,17 +5230,19 @@
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="81" t="s">
-        <v>554</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>559</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="122"/>
+    <row r="6" spans="1:10" ht="51">
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="C6" s="67">
         <v>1</v>
@@ -5056,17 +5252,19 @@
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="81" t="s">
-        <v>556</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>561</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="36" customHeight="1">
-      <c r="A7" s="122"/>
+      <c r="A7" s="123"/>
       <c r="B7" s="63" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C7" s="69">
         <v>2</v>
@@ -5076,17 +5274,19 @@
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="81" t="s">
-        <v>558</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>563</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="66.75" customHeight="1">
-      <c r="A8" s="122"/>
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C8" s="69">
         <v>2</v>
@@ -5096,17 +5296,19 @@
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="81" t="s">
-        <v>560</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>565</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="31.2">
-      <c r="A9" s="122"/>
+    <row r="9" spans="1:10" ht="34">
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="C9" s="79">
         <v>2</v>
@@ -5116,9 +5318,11 @@
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="82" t="s">
-        <v>562</v>
-      </c>
-      <c r="G9" s="36"/>
+        <v>567</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="38"/>
@@ -5150,20 +5354,20 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" style="73" customWidth="1"/>
+    <col min="1" max="1" width="33.5" style="73" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" style="26" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="60"/>
+    <col min="3" max="5" width="8.83203125" style="60"/>
     <col min="6" max="6" width="78.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="26" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="26.88671875" style="26" customWidth="1"/>
-    <col min="10" max="10" width="31.88671875" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.88671875" style="26"/>
+    <col min="7" max="7" width="18.83203125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="31.5" style="26" customWidth="1"/>
+    <col min="9" max="9" width="26.83203125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="31.83203125" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -5196,11 +5400,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="122" t="s">
-        <v>563</v>
+      <c r="A2" s="123" t="s">
+        <v>568</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -5210,17 +5414,21 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>565</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>570</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="I2" s="50" t="s">
+        <v>706</v>
+      </c>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="122"/>
+    <row r="3" spans="1:10" ht="51">
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="C3" s="69">
         <v>2</v>
@@ -5230,17 +5438,19 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>567</v>
-      </c>
-      <c r="G3" s="29"/>
+        <v>572</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="46.8">
-      <c r="A4" s="122"/>
+    <row r="4" spans="1:10" ht="34">
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C4" s="69">
         <v>2</v>
@@ -5250,19 +5460,21 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>569</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>574</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="31.2">
+    <row r="5" spans="1:10" ht="34">
       <c r="A5" s="1" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C5" s="69">
         <v>2</v>
@@ -5272,19 +5484,21 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>572</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>577</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="122" t="s">
-        <v>573</v>
+      <c r="A6" s="123" t="s">
+        <v>578</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="C6" s="67">
         <v>1</v>
@@ -5294,17 +5508,19 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>575</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>580</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="122"/>
+    <row r="7" spans="1:10" ht="34">
+      <c r="A7" s="123"/>
       <c r="B7" s="63" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C7" s="67">
         <v>1</v>
@@ -5314,17 +5530,19 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>577</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>582</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="46.8">
-      <c r="A8" s="122"/>
+    <row r="8" spans="1:10" ht="51">
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="C8" s="67">
         <v>1</v>
@@ -5334,17 +5552,19 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>579</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>584</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="62.4">
-      <c r="A9" s="122"/>
+    <row r="9" spans="1:10" ht="68">
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5354,17 +5574,19 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>581</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>586</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="122"/>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="C10" s="67">
         <v>1</v>
@@ -5374,17 +5596,19 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>583</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>588</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="46.8">
-      <c r="A11" s="122"/>
+    <row r="11" spans="1:10" ht="51">
+      <c r="A11" s="123"/>
       <c r="B11" s="63" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="C11" s="69">
         <v>2</v>
@@ -5394,19 +5618,21 @@
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="81" t="s">
-        <v>585</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>590</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A12" s="122" t="s">
-        <v>586</v>
+      <c r="A12" s="123" t="s">
+        <v>591</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="C12" s="67">
         <v>1</v>
@@ -5416,17 +5642,19 @@
       </c>
       <c r="E12" s="28"/>
       <c r="F12" s="81" t="s">
-        <v>588</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>593</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="31.2">
-      <c r="A13" s="122"/>
+    <row r="13" spans="1:10" ht="34">
+      <c r="A13" s="123"/>
       <c r="B13" s="63" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C13" s="67">
         <v>1</v>
@@ -5436,19 +5664,21 @@
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="81" t="s">
-        <v>590</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>595</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A14" s="122" t="s">
-        <v>591</v>
+      <c r="A14" s="123" t="s">
+        <v>596</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="C14" s="67">
         <v>1</v>
@@ -5458,17 +5688,19 @@
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="81" t="s">
-        <v>593</v>
-      </c>
-      <c r="G14" s="29"/>
+        <v>598</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="122"/>
+    <row r="15" spans="1:10" ht="34">
+      <c r="A15" s="123"/>
       <c r="B15" s="63" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="C15" s="67">
         <v>1</v>
@@ -5478,19 +5710,21 @@
       </c>
       <c r="E15" s="28"/>
       <c r="F15" s="81" t="s">
-        <v>595</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>600</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" ht="46.8">
+    <row r="16" spans="1:10" ht="34">
       <c r="A16" s="1" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="C16" s="71">
         <v>1</v>
@@ -5500,9 +5734,11 @@
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="82" t="s">
-        <v>598</v>
-      </c>
-      <c r="G16" s="36"/>
+        <v>603</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="38"/>
@@ -5537,19 +5773,19 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="24" style="73" customWidth="1"/>
-    <col min="2" max="5" width="8.88671875" style="26"/>
-    <col min="6" max="6" width="84.44140625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="26" customWidth="1"/>
-    <col min="8" max="8" width="35.44140625" style="26" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="37.88671875" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.88671875" style="26"/>
+    <col min="2" max="5" width="8.83203125" style="26"/>
+    <col min="6" max="6" width="84.5" style="26" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="26" customWidth="1"/>
+    <col min="8" max="8" width="35.5" style="26" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="37.83203125" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -5582,11 +5818,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="122" t="s">
-        <v>599</v>
+      <c r="A2" s="123" t="s">
+        <v>604</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -5596,17 +5832,19 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>601</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>606</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="15.6">
-      <c r="A3" s="122"/>
+    <row r="3" spans="1:10" ht="17">
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="C3" s="67">
         <v>1</v>
@@ -5616,19 +5854,19 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="122"/>
+    <row r="4" spans="1:10" ht="17">
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="C4" s="67">
         <v>1</v>
@@ -5638,17 +5876,19 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>605</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>610</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="122"/>
+    <row r="5" spans="1:10" ht="51">
+      <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="C5" s="69">
         <v>2</v>
@@ -5658,17 +5898,19 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>607</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>612</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="122"/>
+    <row r="6" spans="1:10" ht="34">
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="C6" s="69">
         <v>2</v>
@@ -5678,19 +5920,21 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>609</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>614</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>610</v>
+      <c r="A7" s="123" t="s">
+        <v>615</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="C7" s="67">
         <v>1</v>
@@ -5700,17 +5944,19 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>612</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>617</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="122"/>
+    <row r="8" spans="1:10" ht="17">
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="C8" s="67">
         <v>1</v>
@@ -5720,17 +5966,19 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>614</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>619</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="46.8">
-      <c r="A9" s="122"/>
+    <row r="9" spans="1:10" ht="51">
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -5740,17 +5988,19 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>616</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>621</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="122"/>
+    <row r="10" spans="1:10" ht="17">
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="C10" s="69">
         <v>2</v>
@@ -5760,19 +6010,19 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="31.2">
-      <c r="A11" s="122"/>
+    <row r="11" spans="1:10" ht="34">
+      <c r="A11" s="123"/>
       <c r="B11" s="63" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="C11" s="69">
         <v>2</v>
@@ -5782,17 +6032,19 @@
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>620</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>625</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="93.6">
-      <c r="A12" s="122"/>
+    <row r="12" spans="1:10" ht="85">
+      <c r="A12" s="123"/>
       <c r="B12" s="63" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="C12" s="69">
         <v>2</v>
@@ -5802,19 +6054,21 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>622</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>627</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="122" t="s">
-        <v>623</v>
+      <c r="A13" s="123" t="s">
+        <v>628</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="C13" s="67">
         <v>1</v>
@@ -5824,17 +6078,19 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>625</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>630</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="31.2">
-      <c r="A14" s="122"/>
+    <row r="14" spans="1:10" ht="34">
+      <c r="A14" s="123"/>
       <c r="B14" s="63" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="C14" s="69">
         <v>2</v>
@@ -5844,19 +6100,21 @@
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="81" t="s">
-        <v>627</v>
-      </c>
-      <c r="G14" s="29"/>
+        <v>632</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A15" s="122" t="s">
-        <v>628</v>
+      <c r="A15" s="123" t="s">
+        <v>633</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="C15" s="69">
         <v>2</v>
@@ -5866,17 +6124,19 @@
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="81" t="s">
-        <v>630</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>635</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" ht="31.2">
-      <c r="A16" s="122"/>
+    <row r="16" spans="1:10" ht="34">
+      <c r="A16" s="123"/>
       <c r="B16" s="63" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="C16" s="79">
         <v>2</v>
@@ -5886,9 +6146,11 @@
       </c>
       <c r="E16" s="72"/>
       <c r="F16" s="82" t="s">
-        <v>632</v>
-      </c>
-      <c r="G16" s="36"/>
+        <v>637</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="38"/>
@@ -5919,24 +6181,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:A26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" style="73" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" style="26" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="40.83203125" style="73" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="26" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="26"/>
     <col min="6" max="6" width="88.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" style="26" customWidth="1"/>
     <col min="8" max="8" width="35.33203125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="33.44140625" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.88671875" style="26"/>
+    <col min="9" max="9" width="20.5" style="26" customWidth="1"/>
+    <col min="10" max="10" width="33.5" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="99" t="s">
         <v>20</v>
       </c>
@@ -5969,11 +6231,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="123" t="s">
-        <v>633</v>
+      <c r="A2" s="124" t="s">
+        <v>638</v>
       </c>
       <c r="B2" s="100" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="C2" s="101">
         <v>2</v>
@@ -5981,17 +6243,19 @@
       <c r="D2" s="102"/>
       <c r="E2" s="103"/>
       <c r="F2" s="104" t="s">
-        <v>635</v>
-      </c>
-      <c r="G2" s="105"/>
+        <v>640</v>
+      </c>
+      <c r="G2" s="105" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="105"/>
       <c r="I2" s="105"/>
       <c r="J2" s="106"/>
     </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="123"/>
+    <row r="3" spans="1:10" ht="51">
+      <c r="A3" s="124"/>
       <c r="B3" s="63" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="C3" s="107">
         <v>2</v>
@@ -6001,17 +6265,19 @@
       </c>
       <c r="E3" s="109"/>
       <c r="F3" s="110" t="s">
-        <v>637</v>
-      </c>
-      <c r="G3" s="111"/>
+        <v>642</v>
+      </c>
+      <c r="G3" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="111"/>
       <c r="I3" s="111"/>
       <c r="J3" s="112"/>
     </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="123"/>
+    <row r="4" spans="1:10" ht="34">
+      <c r="A4" s="124"/>
       <c r="B4" s="63" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="C4" s="107">
         <v>2</v>
@@ -6021,17 +6287,19 @@
       </c>
       <c r="E4" s="109"/>
       <c r="F4" s="110" t="s">
-        <v>639</v>
-      </c>
-      <c r="G4" s="111"/>
+        <v>644</v>
+      </c>
+      <c r="G4" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="111"/>
       <c r="I4" s="111"/>
       <c r="J4" s="112"/>
     </row>
-    <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="123"/>
+    <row r="5" spans="1:10" ht="51">
+      <c r="A5" s="124"/>
       <c r="B5" s="63" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="C5" s="107">
         <v>2</v>
@@ -6039,17 +6307,19 @@
       <c r="D5" s="108"/>
       <c r="E5" s="109"/>
       <c r="F5" s="110" t="s">
-        <v>641</v>
-      </c>
-      <c r="G5" s="111"/>
+        <v>646</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="111"/>
       <c r="I5" s="111"/>
       <c r="J5" s="112"/>
     </row>
-    <row r="6" spans="1:10" ht="31.2">
-      <c r="A6" s="123"/>
+    <row r="6" spans="1:10" ht="34">
+      <c r="A6" s="124"/>
       <c r="B6" s="63" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="C6" s="113">
         <v>3</v>
@@ -6057,19 +6327,21 @@
       <c r="D6" s="108"/>
       <c r="E6" s="109"/>
       <c r="F6" s="110" t="s">
-        <v>643</v>
-      </c>
-      <c r="G6" s="111"/>
+        <v>648</v>
+      </c>
+      <c r="G6" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="111"/>
       <c r="I6" s="111"/>
       <c r="J6" s="112"/>
     </row>
     <row r="7" spans="1:10" ht="48" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>644</v>
+      <c r="A7" s="123" t="s">
+        <v>649</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="C7" s="114">
         <v>1</v>
@@ -6079,17 +6351,19 @@
       </c>
       <c r="E7" s="109"/>
       <c r="F7" s="110" t="s">
-        <v>646</v>
-      </c>
-      <c r="G7" s="111"/>
+        <v>651</v>
+      </c>
+      <c r="G7" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="111"/>
       <c r="I7" s="111"/>
       <c r="J7" s="112"/>
     </row>
-    <row r="8" spans="1:10" ht="31.2">
-      <c r="A8" s="122"/>
+    <row r="8" spans="1:10" ht="34">
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="C8" s="114">
         <v>1</v>
@@ -6099,17 +6373,19 @@
       </c>
       <c r="E8" s="109"/>
       <c r="F8" s="110" t="s">
-        <v>648</v>
-      </c>
-      <c r="G8" s="111"/>
+        <v>653</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="111"/>
       <c r="I8" s="111"/>
       <c r="J8" s="112"/>
     </row>
-    <row r="9" spans="1:10" ht="46.8">
-      <c r="A9" s="122"/>
+    <row r="9" spans="1:10" ht="51">
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="C9" s="114">
         <v>1</v>
@@ -6119,17 +6395,19 @@
       </c>
       <c r="E9" s="109"/>
       <c r="F9" s="110" t="s">
-        <v>650</v>
-      </c>
-      <c r="G9" s="111"/>
+        <v>655</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="111"/>
       <c r="I9" s="111"/>
       <c r="J9" s="112"/>
     </row>
-    <row r="10" spans="1:10" ht="46.8">
-      <c r="A10" s="122"/>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="C10" s="107">
         <v>2</v>
@@ -6139,17 +6417,19 @@
       </c>
       <c r="E10" s="109"/>
       <c r="F10" s="110" t="s">
-        <v>652</v>
-      </c>
-      <c r="G10" s="111"/>
+        <v>657</v>
+      </c>
+      <c r="G10" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="111"/>
       <c r="I10" s="111"/>
       <c r="J10" s="112"/>
     </row>
-    <row r="11" spans="1:10" ht="31.2">
-      <c r="A11" s="122"/>
+    <row r="11" spans="1:10" ht="34">
+      <c r="A11" s="123"/>
       <c r="B11" s="63" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="C11" s="107">
         <v>2</v>
@@ -6157,17 +6437,21 @@
       <c r="D11" s="108"/>
       <c r="E11" s="109"/>
       <c r="F11" s="110" t="s">
-        <v>654</v>
-      </c>
-      <c r="G11" s="111"/>
+        <v>659</v>
+      </c>
+      <c r="G11" s="111" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
+      <c r="I11" s="111" t="s">
+        <v>708</v>
+      </c>
       <c r="J11" s="112"/>
     </row>
-    <row r="12" spans="1:10" ht="46.8">
-      <c r="A12" s="122"/>
+    <row r="12" spans="1:10" ht="51">
+      <c r="A12" s="123"/>
       <c r="B12" s="63" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C12" s="107">
         <v>2</v>
@@ -6177,19 +6461,21 @@
       </c>
       <c r="E12" s="109"/>
       <c r="F12" s="110" t="s">
-        <v>656</v>
-      </c>
-      <c r="G12" s="111"/>
+        <v>661</v>
+      </c>
+      <c r="G12" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="111"/>
       <c r="I12" s="111"/>
       <c r="J12" s="112"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A13" s="122" t="s">
-        <v>657</v>
+      <c r="A13" s="123" t="s">
+        <v>662</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="C13" s="114">
         <v>1</v>
@@ -6199,19 +6485,19 @@
       </c>
       <c r="E13" s="109"/>
       <c r="F13" s="110" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="G13" s="111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13" s="111"/>
       <c r="I13" s="111"/>
       <c r="J13" s="112"/>
     </row>
-    <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="122"/>
+    <row r="14" spans="1:10" ht="34">
+      <c r="A14" s="123"/>
       <c r="B14" s="63" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="C14" s="114">
         <v>1</v>
@@ -6221,17 +6507,19 @@
       </c>
       <c r="E14" s="109"/>
       <c r="F14" s="110" t="s">
-        <v>661</v>
-      </c>
-      <c r="G14" s="111"/>
+        <v>666</v>
+      </c>
+      <c r="G14" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="111"/>
       <c r="I14" s="111"/>
       <c r="J14" s="112"/>
     </row>
-    <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="122"/>
+    <row r="15" spans="1:10" ht="34">
+      <c r="A15" s="123"/>
       <c r="B15" s="63" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C15" s="114">
         <v>1</v>
@@ -6241,19 +6529,21 @@
       </c>
       <c r="E15" s="109"/>
       <c r="F15" s="110" t="s">
-        <v>663</v>
-      </c>
-      <c r="G15" s="111"/>
+        <v>668</v>
+      </c>
+      <c r="G15" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="111"/>
       <c r="I15" s="111"/>
       <c r="J15" s="112"/>
     </row>
     <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="122" t="s">
-        <v>664</v>
+      <c r="A16" s="123" t="s">
+        <v>669</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C16" s="114">
         <v>1</v>
@@ -6263,17 +6553,19 @@
       </c>
       <c r="E16" s="109"/>
       <c r="F16" s="110" t="s">
-        <v>666</v>
-      </c>
-      <c r="G16" s="111"/>
+        <v>671</v>
+      </c>
+      <c r="G16" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="111"/>
       <c r="I16" s="111"/>
       <c r="J16" s="112"/>
     </row>
-    <row r="17" spans="1:10" ht="31.2">
-      <c r="A17" s="122"/>
+    <row r="17" spans="1:10" ht="34">
+      <c r="A17" s="123"/>
       <c r="B17" s="63" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="C17" s="114">
         <v>1</v>
@@ -6283,17 +6575,19 @@
       </c>
       <c r="E17" s="109"/>
       <c r="F17" s="110" t="s">
-        <v>668</v>
-      </c>
-      <c r="G17" s="111"/>
+        <v>673</v>
+      </c>
+      <c r="G17" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H17" s="111"/>
       <c r="I17" s="111"/>
       <c r="J17" s="112"/>
     </row>
-    <row r="18" spans="1:10" ht="31.2">
-      <c r="A18" s="122"/>
+    <row r="18" spans="1:10" ht="34">
+      <c r="A18" s="123"/>
       <c r="B18" s="63" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="C18" s="114">
         <v>1</v>
@@ -6303,17 +6597,19 @@
       </c>
       <c r="E18" s="109"/>
       <c r="F18" s="110" t="s">
-        <v>670</v>
-      </c>
-      <c r="G18" s="111"/>
+        <v>675</v>
+      </c>
+      <c r="G18" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="111"/>
       <c r="I18" s="111"/>
       <c r="J18" s="112"/>
     </row>
-    <row r="19" spans="1:10" ht="15.6">
-      <c r="A19" s="122"/>
+    <row r="19" spans="1:10" ht="17">
+      <c r="A19" s="123"/>
       <c r="B19" s="63" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="C19" s="114">
         <v>1</v>
@@ -6323,17 +6619,19 @@
       </c>
       <c r="E19" s="109"/>
       <c r="F19" s="110" t="s">
-        <v>672</v>
-      </c>
-      <c r="G19" s="111"/>
+        <v>677</v>
+      </c>
+      <c r="G19" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H19" s="111"/>
       <c r="I19" s="111"/>
       <c r="J19" s="112"/>
     </row>
-    <row r="20" spans="1:10" ht="31.2">
-      <c r="A20" s="122"/>
+    <row r="20" spans="1:10" ht="34">
+      <c r="A20" s="123"/>
       <c r="B20" s="63" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="C20" s="114">
         <v>1</v>
@@ -6343,17 +6641,19 @@
       </c>
       <c r="E20" s="109"/>
       <c r="F20" s="110" t="s">
-        <v>674</v>
-      </c>
-      <c r="G20" s="111"/>
+        <v>679</v>
+      </c>
+      <c r="G20" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H20" s="111"/>
       <c r="I20" s="111"/>
       <c r="J20" s="112"/>
     </row>
-    <row r="21" spans="1:10" ht="31.2">
-      <c r="A21" s="122"/>
+    <row r="21" spans="1:10" ht="34">
+      <c r="A21" s="123"/>
       <c r="B21" s="63" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="C21" s="114">
         <v>1</v>
@@ -6363,17 +6663,19 @@
       </c>
       <c r="E21" s="109"/>
       <c r="F21" s="110" t="s">
-        <v>676</v>
-      </c>
-      <c r="G21" s="111"/>
+        <v>681</v>
+      </c>
+      <c r="G21" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="111"/>
       <c r="I21" s="111"/>
       <c r="J21" s="112"/>
     </row>
-    <row r="22" spans="1:10" ht="62.4">
-      <c r="A22" s="122"/>
+    <row r="22" spans="1:10" ht="51">
+      <c r="A22" s="123"/>
       <c r="B22" s="63" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="C22" s="114">
         <v>1</v>
@@ -6383,19 +6685,21 @@
       </c>
       <c r="E22" s="109"/>
       <c r="F22" s="110" t="s">
-        <v>678</v>
-      </c>
-      <c r="G22" s="111"/>
+        <v>683</v>
+      </c>
+      <c r="G22" s="111" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" s="111"/>
       <c r="I22" s="111"/>
       <c r="J22" s="112"/>
     </row>
     <row r="23" spans="1:10" ht="48" customHeight="1">
-      <c r="A23" s="122" t="s">
-        <v>679</v>
+      <c r="A23" s="123" t="s">
+        <v>684</v>
       </c>
       <c r="B23" s="63" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="C23" s="114">
         <v>1</v>
@@ -6405,17 +6709,19 @@
       </c>
       <c r="E23" s="109"/>
       <c r="F23" s="110" t="s">
-        <v>681</v>
-      </c>
-      <c r="G23" s="111"/>
+        <v>686</v>
+      </c>
+      <c r="G23" s="111" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="111"/>
       <c r="I23" s="111"/>
       <c r="J23" s="112"/>
     </row>
-    <row r="24" spans="1:10" ht="31.2">
-      <c r="A24" s="122"/>
+    <row r="24" spans="1:10" ht="34">
+      <c r="A24" s="123"/>
       <c r="B24" s="63" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="C24" s="114">
         <v>1</v>
@@ -6425,17 +6731,19 @@
       </c>
       <c r="E24" s="109"/>
       <c r="F24" s="110" t="s">
-        <v>683</v>
-      </c>
-      <c r="G24" s="111"/>
+        <v>688</v>
+      </c>
+      <c r="G24" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H24" s="111"/>
       <c r="I24" s="111"/>
       <c r="J24" s="112"/>
     </row>
-    <row r="25" spans="1:10" ht="46.8">
-      <c r="A25" s="122"/>
+    <row r="25" spans="1:10" ht="34">
+      <c r="A25" s="123"/>
       <c r="B25" s="63" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="C25" s="114">
         <v>1</v>
@@ -6445,17 +6753,19 @@
       </c>
       <c r="E25" s="109"/>
       <c r="F25" s="110" t="s">
-        <v>685</v>
-      </c>
-      <c r="G25" s="111"/>
+        <v>690</v>
+      </c>
+      <c r="G25" s="111" t="s">
+        <v>26</v>
+      </c>
       <c r="H25" s="111"/>
       <c r="I25" s="111"/>
       <c r="J25" s="112"/>
     </row>
-    <row r="26" spans="1:10" ht="31.2">
-      <c r="A26" s="122"/>
+    <row r="26" spans="1:10" ht="34">
+      <c r="A26" s="123"/>
       <c r="B26" s="63" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C26" s="115">
         <v>2</v>
@@ -6465,9 +6775,11 @@
       </c>
       <c r="E26" s="117"/>
       <c r="F26" s="118" t="s">
-        <v>687</v>
-      </c>
-      <c r="G26" s="119"/>
+        <v>692</v>
+      </c>
+      <c r="G26" s="119" t="s">
+        <v>43</v>
+      </c>
       <c r="H26" s="119"/>
       <c r="I26" s="119"/>
       <c r="J26" s="120"/>
@@ -6499,25 +6811,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A36" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="15"/>
-    <col min="3" max="3" width="10.77734375" style="15" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="15"/>
-    <col min="6" max="6" width="60.88671875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="35.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="15"/>
+    <col min="3" max="3" width="10.6640625" style="15" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="15"/>
+    <col min="6" max="6" width="60.83203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" style="15" customWidth="1"/>
     <col min="8" max="8" width="36" style="15" customWidth="1"/>
     <col min="9" max="9" width="31.6640625" style="15" customWidth="1"/>
     <col min="10" max="10" width="41.6640625" style="15" customWidth="1"/>
-    <col min="11" max="1024" width="8.88671875" style="15"/>
+    <col min="11" max="1024" width="8.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="44">
       <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
@@ -6549,8 +6861,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="26" customFormat="1" ht="58.2" customHeight="1">
-      <c r="A2" s="121" t="s">
+    <row r="2" spans="1:10" s="26" customFormat="1" ht="58.25" customHeight="1">
+      <c r="A2" s="122" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -6568,11 +6880,13 @@
         <v>26</v>
       </c>
       <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="I2" s="24" t="s">
+        <v>709</v>
+      </c>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A3" s="121"/>
+    <row r="3" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A3" s="122"/>
       <c r="B3" s="19" t="s">
         <v>33</v>
       </c>
@@ -6591,10 +6905,12 @@
       </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-    </row>
-    <row r="4" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A4" s="121"/>
+      <c r="J3" s="32" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A4" s="122"/>
       <c r="B4" s="19" t="s">
         <v>35</v>
       </c>
@@ -6613,10 +6929,12 @@
       </c>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-    </row>
-    <row r="5" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A5" s="121"/>
+      <c r="J4" s="32" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A5" s="122"/>
       <c r="B5" s="19" t="s">
         <v>37</v>
       </c>
@@ -6637,8 +6955,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A6" s="121"/>
+    <row r="6" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A6" s="122"/>
       <c r="B6" s="19" t="s">
         <v>39</v>
       </c>
@@ -6659,8 +6977,8 @@
       <c r="I6" s="31"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" s="26" customFormat="1" ht="78">
-      <c r="A7" s="121"/>
+    <row r="7" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A7" s="122"/>
       <c r="B7" s="19" t="s">
         <v>41</v>
       </c>
@@ -6675,16 +6993,16 @@
         <v>42</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A8" s="121"/>
+    <row r="8" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A8" s="122"/>
       <c r="B8" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="27">
         <v>2</v>
@@ -6694,21 +7012,23 @@
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="I8" s="31" t="s">
+        <v>712</v>
+      </c>
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10" s="26" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A9" s="121" t="s">
-        <v>45</v>
+      <c r="A9" s="122" t="s">
+        <v>46</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" s="27">
         <v>2</v>
@@ -6718,7 +7038,7 @@
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>26</v>
@@ -6727,10 +7047,10 @@
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" s="26" customFormat="1" ht="78">
-      <c r="A10" s="121"/>
+    <row r="10" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A10" s="122"/>
       <c r="B10" s="19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="27">
         <v>2</v>
@@ -6740,7 +7060,7 @@
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>26</v>
@@ -6749,10 +7069,10 @@
       <c r="I10" s="31"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A11" s="121"/>
+    <row r="11" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A11" s="122"/>
       <c r="B11" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C11" s="27">
         <v>2</v>
@@ -6762,7 +7082,7 @@
       </c>
       <c r="E11" s="29"/>
       <c r="F11" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>26</v>
@@ -6771,10 +7091,10 @@
       <c r="I11" s="31"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A12" s="121"/>
+    <row r="12" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A12" s="122"/>
       <c r="B12" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="27">
         <v>2</v>
@@ -6784,7 +7104,7 @@
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>26</v>
@@ -6793,30 +7113,30 @@
       <c r="I12" s="31"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" s="26" customFormat="1" ht="42">
+    <row r="13" spans="1:10" s="26" customFormat="1" ht="44">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
       <c r="E13" s="29"/>
       <c r="F13" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A14" s="121" t="s">
-        <v>57</v>
+      <c r="A14" s="122" t="s">
+        <v>58</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="27">
         <v>2</v>
@@ -6826,19 +7146,19 @@
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" s="26" customFormat="1" ht="15.6">
-      <c r="A15" s="121"/>
+    <row r="15" spans="1:10" s="26" customFormat="1" ht="17">
+      <c r="A15" s="122"/>
       <c r="B15" s="19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="27">
         <v>2</v>
@@ -6848,19 +7168,19 @@
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" s="26" customFormat="1" ht="15.6">
-      <c r="A16" s="121"/>
+    <row r="16" spans="1:10" s="26" customFormat="1" ht="17">
+      <c r="A16" s="122"/>
       <c r="B16" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="27">
         <v>2</v>
@@ -6870,19 +7190,19 @@
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A17" s="121"/>
+    <row r="17" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A17" s="122"/>
       <c r="B17" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="27">
         <v>2</v>
@@ -6892,19 +7212,21 @@
       </c>
       <c r="E17" s="29"/>
       <c r="F17" s="30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="I17" s="29" t="s">
+        <v>713</v>
+      </c>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A18" s="121"/>
+    <row r="18" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A18" s="122"/>
       <c r="B18" s="19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="27">
         <v>2</v>
@@ -6914,21 +7236,21 @@
       </c>
       <c r="E18" s="29"/>
       <c r="F18" s="30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A19" s="121" t="s">
-        <v>68</v>
+      <c r="A19" s="122" t="s">
+        <v>69</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" s="27">
         <v>2</v>
@@ -6938,19 +7260,19 @@
       </c>
       <c r="E19" s="29"/>
       <c r="F19" s="30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="33"/>
     </row>
-    <row r="20" spans="1:10" s="26" customFormat="1" ht="78">
-      <c r="A20" s="121"/>
+    <row r="20" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A20" s="122"/>
       <c r="B20" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="27">
         <v>2</v>
@@ -6960,19 +7282,19 @@
       </c>
       <c r="E20" s="29"/>
       <c r="F20" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
       <c r="J20" s="33"/>
     </row>
-    <row r="21" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A21" s="121"/>
+    <row r="21" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A21" s="122"/>
       <c r="B21" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C21" s="27">
         <v>2</v>
@@ -6982,7 +7304,7 @@
       </c>
       <c r="E21" s="29"/>
       <c r="F21" s="30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>26</v>
@@ -6991,10 +7313,10 @@
       <c r="I21" s="29"/>
       <c r="J21" s="33"/>
     </row>
-    <row r="22" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A22" s="121"/>
+    <row r="22" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A22" s="122"/>
       <c r="B22" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" s="27">
         <v>2</v>
@@ -7004,7 +7326,7 @@
       </c>
       <c r="E22" s="29"/>
       <c r="F22" s="30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>26</v>
@@ -7014,11 +7336,11 @@
       <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A23" s="121" t="s">
-        <v>77</v>
+      <c r="A23" s="122" t="s">
+        <v>78</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="27">
         <v>2</v>
@@ -7028,19 +7350,19 @@
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A24" s="121"/>
+    <row r="24" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A24" s="122"/>
       <c r="B24" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C24" s="27">
         <v>2</v>
@@ -7050,19 +7372,19 @@
       </c>
       <c r="E24" s="29"/>
       <c r="F24" s="30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>688</v>
+        <v>43</v>
       </c>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="33"/>
     </row>
-    <row r="25" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A25" s="121"/>
+    <row r="25" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A25" s="122"/>
       <c r="B25" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C25" s="27">
         <v>2</v>
@@ -7072,19 +7394,19 @@
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>688</v>
+        <v>43</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="33"/>
     </row>
-    <row r="26" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A26" s="121"/>
+    <row r="26" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A26" s="122"/>
       <c r="B26" s="19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C26" s="27">
         <v>2</v>
@@ -7094,7 +7416,7 @@
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G26" s="29" t="s">
         <v>26</v>
@@ -7104,11 +7426,11 @@
       <c r="J26" s="33"/>
     </row>
     <row r="27" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A27" s="121" t="s">
-        <v>86</v>
+      <c r="A27" s="122" t="s">
+        <v>87</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="27">
         <v>2</v>
@@ -7118,17 +7440,19 @@
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="29"/>
+        <v>89</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
       <c r="J27" s="33"/>
     </row>
-    <row r="28" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A28" s="121"/>
+    <row r="28" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A28" s="122"/>
       <c r="B28" s="19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="27">
         <v>2</v>
@@ -7136,21 +7460,21 @@
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
       <c r="F28" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" s="26" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A29" s="121" t="s">
-        <v>91</v>
+      <c r="A29" s="122" t="s">
+        <v>92</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="27">
         <v>2</v>
@@ -7158,19 +7482,19 @@
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
       <c r="F29" s="30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>688</v>
+        <v>43</v>
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="1:10" s="26" customFormat="1" ht="78">
-      <c r="A30" s="121"/>
+    <row r="30" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A30" s="122"/>
       <c r="B30" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="27">
         <v>2</v>
@@ -7178,21 +7502,21 @@
       <c r="D30" s="28"/>
       <c r="E30" s="29"/>
       <c r="F30" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="33"/>
     </row>
     <row r="31" spans="1:10" s="26" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A31" s="121" t="s">
-        <v>96</v>
+      <c r="A31" s="122" t="s">
+        <v>97</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C31" s="27">
         <v>2</v>
@@ -7202,19 +7526,19 @@
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
       <c r="J31" s="33"/>
     </row>
-    <row r="32" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A32" s="121"/>
+    <row r="32" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A32" s="122"/>
       <c r="B32" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C32" s="27">
         <v>2</v>
@@ -7224,21 +7548,21 @@
       </c>
       <c r="E32" s="29"/>
       <c r="F32" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="1:10" s="26" customFormat="1" ht="78">
+    <row r="33" spans="1:10" s="26" customFormat="1" ht="68">
       <c r="A33" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C33" s="27">
         <v>2</v>
@@ -7248,21 +7572,25 @@
       </c>
       <c r="E33" s="29"/>
       <c r="F33" s="30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G33" s="29" t="s">
         <v>26</v>
       </c>
       <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="33"/>
+      <c r="I33" s="29" t="s">
+        <v>714</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="34" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A34" s="121" t="s">
-        <v>104</v>
+      <c r="A34" s="122" t="s">
+        <v>105</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C34" s="27">
         <v>2</v>
@@ -7272,7 +7600,7 @@
       </c>
       <c r="E34" s="29"/>
       <c r="F34" s="30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G34" s="29" t="s">
         <v>26</v>
@@ -7281,10 +7609,10 @@
       <c r="I34" s="29"/>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A35" s="121"/>
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A35" s="122"/>
       <c r="B35" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C35" s="27">
         <v>2</v>
@@ -7294,19 +7622,19 @@
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
       <c r="J35" s="33"/>
     </row>
-    <row r="36" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A36" s="121"/>
+    <row r="36" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A36" s="122"/>
       <c r="B36" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C36" s="27">
         <v>2</v>
@@ -7316,21 +7644,21 @@
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G36" s="29" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
       <c r="J36" s="33"/>
     </row>
     <row r="37" spans="1:10" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A37" s="121" t="s">
-        <v>111</v>
+      <c r="A37" s="122" t="s">
+        <v>112</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C37" s="27">
         <v>2</v>
@@ -7340,19 +7668,19 @@
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
       <c r="J37" s="33"/>
     </row>
-    <row r="38" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A38" s="121"/>
+    <row r="38" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A38" s="122"/>
       <c r="B38" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C38" s="27">
         <v>2</v>
@@ -7362,7 +7690,7 @@
       </c>
       <c r="E38" s="29"/>
       <c r="F38" s="30" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G38" s="29" t="s">
         <v>26</v>
@@ -7371,30 +7699,30 @@
       <c r="I38" s="29"/>
       <c r="J38" s="33"/>
     </row>
-    <row r="39" spans="1:10" s="26" customFormat="1">
+    <row r="39" spans="1:10" s="26" customFormat="1" ht="22">
       <c r="A39" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B39" s="19"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
       <c r="F39" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
       <c r="J39" s="33"/>
     </row>
-    <row r="40" spans="1:10" s="26" customFormat="1" ht="58.8" customHeight="1">
-      <c r="A40" s="121" t="s">
-        <v>117</v>
+    <row r="40" spans="1:10" s="26" customFormat="1" ht="59" customHeight="1">
+      <c r="A40" s="122" t="s">
+        <v>118</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C40" s="27">
         <v>2</v>
@@ -7404,19 +7732,19 @@
       </c>
       <c r="E40" s="29"/>
       <c r="F40" s="30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
       <c r="J40" s="33"/>
     </row>
-    <row r="41" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A41" s="121"/>
+    <row r="41" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A41" s="122"/>
       <c r="B41" s="19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" s="27">
         <v>2</v>
@@ -7426,19 +7754,19 @@
       </c>
       <c r="E41" s="29"/>
       <c r="F41" s="30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
       <c r="J41" s="33"/>
     </row>
-    <row r="42" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A42" s="121"/>
+    <row r="42" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A42" s="122"/>
       <c r="B42" s="19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C42" s="27">
         <v>2</v>
@@ -7448,19 +7776,19 @@
       </c>
       <c r="E42" s="29"/>
       <c r="F42" s="30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="33"/>
     </row>
-    <row r="43" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A43" s="121"/>
+    <row r="43" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A43" s="122"/>
       <c r="B43" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C43" s="27">
         <v>2</v>
@@ -7468,19 +7796,19 @@
       <c r="D43" s="28"/>
       <c r="E43" s="29"/>
       <c r="F43" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
       <c r="J43" s="33"/>
     </row>
-    <row r="44" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A44" s="121"/>
+    <row r="44" spans="1:10" s="26" customFormat="1" ht="102">
+      <c r="A44" s="122"/>
       <c r="B44" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C44" s="27">
         <v>2</v>
@@ -7490,19 +7818,19 @@
       </c>
       <c r="E44" s="29"/>
       <c r="F44" s="30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
       <c r="J44" s="33"/>
     </row>
-    <row r="45" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A45" s="121"/>
+    <row r="45" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A45" s="122"/>
       <c r="B45" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C45" s="34">
         <v>2</v>
@@ -7512,10 +7840,10 @@
       </c>
       <c r="E45" s="36"/>
       <c r="F45" s="37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H45" s="36"/>
       <c r="I45" s="36"/>
@@ -7523,17 +7851,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G45" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7554,25 +7882,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A14" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="34.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="39"/>
-    <col min="3" max="3" width="14.88671875" style="40" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="40"/>
+    <col min="2" max="2" width="8.83203125" style="39"/>
+    <col min="3" max="3" width="14.83203125" style="40" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="40"/>
     <col min="6" max="6" width="73" style="15" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="30.21875" style="15" customWidth="1"/>
-    <col min="9" max="9" width="33.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="15" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" style="15" customWidth="1"/>
+    <col min="9" max="9" width="33.5" style="15" customWidth="1"/>
     <col min="10" max="10" width="29" style="15" customWidth="1"/>
-    <col min="11" max="1024" width="8.88671875" style="15"/>
+    <col min="11" max="1024" width="8.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="22">
       <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
@@ -7605,11 +7933,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A2" s="122" t="s">
-        <v>130</v>
+      <c r="A2" s="123" t="s">
+        <v>131</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="46">
         <v>1</v>
@@ -7618,20 +7946,22 @@
         <v>521</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F2" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>134</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
       <c r="J2" s="52"/>
     </row>
-    <row r="3" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A3" s="122"/>
+    <row r="3" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A3" s="123"/>
       <c r="B3" s="45" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C3" s="53">
         <v>1</v>
@@ -7640,20 +7970,22 @@
         <v>521</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="29"/>
+        <v>136</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="32"/>
     </row>
-    <row r="4" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A4" s="122"/>
+    <row r="4" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A4" s="123"/>
       <c r="B4" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C4" s="53">
         <v>1</v>
@@ -7662,20 +7994,22 @@
         <v>521</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>138</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A5" s="122"/>
+    <row r="5" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A5" s="123"/>
       <c r="B5" s="45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C5" s="53">
         <v>1</v>
@@ -7684,20 +8018,22 @@
         <v>521</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>140</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" s="26" customFormat="1" ht="15.6">
-      <c r="A6" s="122"/>
+    <row r="6" spans="1:10" s="26" customFormat="1" ht="17">
+      <c r="A6" s="123"/>
       <c r="B6" s="45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="53">
         <v>1</v>
@@ -7706,20 +8042,24 @@
         <v>620</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>142</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="I6" s="31" t="s">
+        <v>694</v>
+      </c>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A7" s="122"/>
+    <row r="7" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A7" s="123"/>
       <c r="B7" s="45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C7" s="53">
         <v>1</v>
@@ -7728,20 +8068,22 @@
         <v>620</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>144</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" s="26" customFormat="1" ht="140.4">
-      <c r="A8" s="122"/>
+    <row r="8" spans="1:10" s="26" customFormat="1" ht="136">
+      <c r="A8" s="123"/>
       <c r="B8" s="45" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C8" s="53">
         <v>1</v>
@@ -7750,20 +8092,22 @@
         <v>521</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>146</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A9" s="122"/>
+    <row r="9" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A9" s="123"/>
       <c r="B9" s="45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" s="53">
         <v>1</v>
@@ -7772,20 +8116,24 @@
         <v>521</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>148</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
-    </row>
-    <row r="10" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A10" s="122"/>
+      <c r="J9" s="32" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A10" s="123"/>
       <c r="B10" s="45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C10" s="53">
         <v>1</v>
@@ -7794,20 +8142,22 @@
         <v>521</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>150</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A11" s="122"/>
+    <row r="11" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A11" s="123"/>
       <c r="B11" s="45" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="53">
         <v>1</v>
@@ -7816,20 +8166,22 @@
         <v>263</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>152</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A12" s="122"/>
+    <row r="12" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A12" s="123"/>
       <c r="B12" s="45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C12" s="53">
         <v>1</v>
@@ -7838,20 +8190,22 @@
         <v>521</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>154</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A13" s="122"/>
+    <row r="13" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A13" s="123"/>
       <c r="B13" s="45" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="53">
         <v>1</v>
@@ -7860,22 +8214,24 @@
         <v>521</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>156</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
       <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" s="26" customFormat="1" ht="111" customHeight="1">
-      <c r="A14" s="122" t="s">
-        <v>156</v>
+      <c r="A14" s="123" t="s">
+        <v>157</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C14" s="53">
         <v>1</v>
@@ -7884,20 +8240,22 @@
         <v>307</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G14" s="29"/>
+        <v>160</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
       <c r="J14" s="32"/>
     </row>
-    <row r="15" spans="1:10" s="26" customFormat="1" ht="78">
-      <c r="A15" s="122"/>
+    <row r="15" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A15" s="123"/>
       <c r="B15" s="45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C15" s="53">
         <v>1</v>
@@ -7906,20 +8264,22 @@
         <v>304</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>163</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A16" s="122"/>
+    <row r="16" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A16" s="123"/>
       <c r="B16" s="45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" s="53">
         <v>1</v>
@@ -7929,17 +8289,19 @@
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="G16" s="29"/>
+        <v>165</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
       <c r="J16" s="32"/>
     </row>
-    <row r="17" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A17" s="122"/>
+    <row r="17" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A17" s="123"/>
       <c r="B17" s="45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C17" s="55">
         <v>3</v>
@@ -7948,20 +8310,22 @@
         <v>308</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="29"/>
+        <v>168</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
       <c r="J17" s="32"/>
     </row>
-    <row r="18" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A18" s="122"/>
+    <row r="18" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A18" s="123"/>
       <c r="B18" s="45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C18" s="55">
         <v>3</v>
@@ -7970,20 +8334,22 @@
         <v>319</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="29"/>
+        <v>171</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32"/>
     </row>
-    <row r="19" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A19" s="122"/>
+    <row r="19" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A19" s="123"/>
       <c r="B19" s="45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" s="55">
         <v>3</v>
@@ -7992,20 +8358,22 @@
         <v>308</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="G19" s="29"/>
+        <v>174</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A20" s="122"/>
+    <row r="20" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A20" s="123"/>
       <c r="B20" s="45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="55">
         <v>3</v>
@@ -8014,22 +8382,24 @@
         <v>308</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" s="29"/>
+        <v>177</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10" s="26" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A21" s="122" t="s">
-        <v>177</v>
+      <c r="A21" s="123" t="s">
+        <v>178</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C21" s="53">
         <v>1</v>
@@ -8038,20 +8408,22 @@
         <v>330</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="29"/>
+        <v>181</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
       <c r="J21" s="32"/>
     </row>
-    <row r="22" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A22" s="122"/>
+    <row r="22" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A22" s="123"/>
       <c r="B22" s="45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C22" s="56">
         <v>2</v>
@@ -8060,20 +8432,22 @@
         <v>308</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="29"/>
+        <v>184</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
       <c r="J22" s="32"/>
     </row>
-    <row r="23" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A23" s="122"/>
+    <row r="23" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A23" s="123"/>
       <c r="B23" s="45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C23" s="56">
         <v>2</v>
@@ -8082,22 +8456,24 @@
         <v>287</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="G23" s="29"/>
+        <v>187</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
       <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10" s="26" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A24" s="122" t="s">
-        <v>187</v>
+      <c r="A24" s="123" t="s">
+        <v>188</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C24" s="56">
         <v>2</v>
@@ -8106,20 +8482,24 @@
         <v>916</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="G24" s="29"/>
+        <v>190</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
+      <c r="I24" s="121" t="s">
+        <v>699</v>
+      </c>
       <c r="J24" s="32"/>
     </row>
-    <row r="25" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A25" s="122"/>
+    <row r="25" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A25" s="123"/>
       <c r="B25" s="45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25" s="56">
         <v>2</v>
@@ -8128,20 +8508,24 @@
         <v>916</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="G25" s="29"/>
+        <v>192</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="I25" s="121" t="s">
+        <v>699</v>
+      </c>
       <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A26" s="122"/>
+    <row r="26" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A26" s="123"/>
       <c r="B26" s="45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C26" s="56">
         <v>2</v>
@@ -8150,20 +8534,24 @@
         <v>916</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="G26" s="29"/>
+        <v>194</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="I26" s="121" t="s">
+        <v>699</v>
+      </c>
       <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A27" s="122"/>
+    <row r="27" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A27" s="123"/>
       <c r="B27" s="45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C27" s="56">
         <v>2</v>
@@ -8172,20 +8560,24 @@
         <v>916</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="G27" s="29"/>
+        <v>196</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
+      <c r="I27" s="121" t="s">
+        <v>699</v>
+      </c>
       <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="1:10" s="26" customFormat="1" ht="109.2">
-      <c r="A28" s="122"/>
+    <row r="28" spans="1:10" s="26" customFormat="1" ht="102">
+      <c r="A28" s="123"/>
       <c r="B28" s="45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C28" s="56">
         <v>2</v>
@@ -8194,22 +8586,26 @@
         <v>916</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="G28" s="29"/>
+        <v>198</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
+      <c r="I28" s="29" t="s">
+        <v>699</v>
+      </c>
       <c r="J28" s="33"/>
     </row>
     <row r="29" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A29" s="122" t="s">
-        <v>198</v>
+      <c r="A29" s="123" t="s">
+        <v>199</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C29" s="53">
         <v>1</v>
@@ -8218,20 +8614,22 @@
         <v>640</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" s="29"/>
+        <v>201</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A30" s="122"/>
+    <row r="30" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A30" s="123"/>
       <c r="B30" s="45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C30" s="53">
         <v>1</v>
@@ -8240,20 +8638,22 @@
         <v>640</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="G30" s="29"/>
+        <v>203</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A31" s="122"/>
+    <row r="31" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A31" s="123"/>
       <c r="B31" s="45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C31" s="53">
         <v>1</v>
@@ -8262,20 +8662,22 @@
         <v>640</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="G31" s="29"/>
+        <v>205</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
       <c r="J31" s="33"/>
     </row>
-    <row r="32" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A32" s="122"/>
+    <row r="32" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A32" s="123"/>
       <c r="B32" s="45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C32" s="53">
         <v>1</v>
@@ -8284,20 +8686,22 @@
         <v>16</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="G32" s="29"/>
+        <v>207</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A33" s="122"/>
+    <row r="33" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A33" s="123"/>
       <c r="B33" s="45" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C33" s="53">
         <v>1</v>
@@ -8306,20 +8710,26 @@
         <v>304</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="G33" s="29"/>
+        <v>210</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="33"/>
-    </row>
-    <row r="34" spans="1:10" s="26" customFormat="1" ht="62.4">
-      <c r="A34" s="122"/>
+      <c r="I33" s="29" t="s">
+        <v>697</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="26" customFormat="1" ht="68">
+      <c r="A34" s="123"/>
       <c r="B34" s="45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C34" s="53">
         <v>1</v>
@@ -8328,20 +8738,22 @@
         <v>640</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F34" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="G34" s="29"/>
+        <v>212</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A35" s="122"/>
+    <row r="35" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A35" s="123"/>
       <c r="B35" s="45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C35" s="56">
         <v>2</v>
@@ -8350,22 +8762,24 @@
         <v>308</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="G35" s="29"/>
+        <v>214</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
       <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="122" t="s">
-        <v>214</v>
+      <c r="A36" s="123" t="s">
+        <v>215</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C36" s="56">
         <v>2</v>
@@ -8374,20 +8788,22 @@
         <v>308</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F36" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="G36" s="29"/>
+        <v>218</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
       <c r="J36" s="33"/>
     </row>
-    <row r="37" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A37" s="122"/>
+    <row r="37" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A37" s="123"/>
       <c r="B37" s="45" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C37" s="56">
         <v>2</v>
@@ -8396,20 +8812,22 @@
         <v>330</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F37" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="G37" s="29"/>
+        <v>220</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
       <c r="J37" s="33"/>
     </row>
-    <row r="38" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A38" s="122"/>
+    <row r="38" spans="1:10" s="26" customFormat="1" ht="17">
+      <c r="A38" s="123"/>
       <c r="B38" s="45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C38" s="56">
         <v>2</v>
@@ -8418,22 +8836,24 @@
         <v>310</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="G38" s="29"/>
+        <v>222</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
       <c r="J38" s="33"/>
     </row>
     <row r="39" spans="1:10" s="26" customFormat="1" ht="48" customHeight="1">
-      <c r="A39" s="122" t="s">
-        <v>222</v>
+      <c r="A39" s="123" t="s">
+        <v>223</v>
       </c>
       <c r="B39" s="45" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C39" s="53">
         <v>1</v>
@@ -8442,20 +8862,22 @@
         <v>287</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F39" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="G39" s="29"/>
+        <v>226</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
       <c r="J39" s="33"/>
     </row>
-    <row r="40" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A40" s="122"/>
+    <row r="40" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A40" s="123"/>
       <c r="B40" s="45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C40" s="53">
         <v>1</v>
@@ -8464,20 +8886,22 @@
         <v>287</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="G40" s="29"/>
+        <v>228</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
       <c r="J40" s="33"/>
     </row>
-    <row r="41" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A41" s="122"/>
+    <row r="41" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A41" s="123"/>
       <c r="B41" s="45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C41" s="53">
         <v>1</v>
@@ -8486,20 +8910,22 @@
         <v>287</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F41" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="G41" s="29"/>
+        <v>230</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
       <c r="J41" s="33"/>
     </row>
-    <row r="42" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A42" s="122"/>
+    <row r="42" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A42" s="123"/>
       <c r="B42" s="45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C42" s="53">
         <v>1</v>
@@ -8508,20 +8934,22 @@
         <v>523</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F42" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="G42" s="29"/>
+        <v>232</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
       <c r="J42" s="33"/>
     </row>
-    <row r="43" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A43" s="122"/>
+    <row r="43" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A43" s="123"/>
       <c r="B43" s="45" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C43" s="56">
         <v>2</v>
@@ -8530,20 +8958,22 @@
         <v>256</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="G43" s="29"/>
+        <v>234</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
       <c r="J43" s="33"/>
     </row>
-    <row r="44" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A44" s="122"/>
+    <row r="44" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A44" s="123"/>
       <c r="B44" s="45" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C44" s="56">
         <v>2</v>
@@ -8552,22 +8982,24 @@
         <v>310</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F44" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="G44" s="29"/>
+        <v>236</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
       <c r="J44" s="33"/>
     </row>
     <row r="45" spans="1:10" s="26" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A45" s="122" t="s">
-        <v>236</v>
+      <c r="A45" s="123" t="s">
+        <v>237</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C45" s="53">
         <v>1</v>
@@ -8576,20 +9008,22 @@
         <v>613</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F45" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="G45" s="29"/>
+        <v>240</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
       <c r="J45" s="33"/>
     </row>
-    <row r="46" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A46" s="122"/>
+    <row r="46" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A46" s="123"/>
       <c r="B46" s="45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C46" s="56">
         <v>2</v>
@@ -8598,20 +9032,22 @@
         <v>320</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F46" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="G46" s="29"/>
+        <v>242</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H46" s="29"/>
       <c r="I46" s="29"/>
       <c r="J46" s="33"/>
     </row>
-    <row r="47" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A47" s="122"/>
+    <row r="47" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A47" s="123"/>
       <c r="B47" s="45" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C47" s="56">
         <v>2</v>
@@ -8620,20 +9056,22 @@
         <v>326</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F47" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="G47" s="29"/>
+        <v>244</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H47" s="29"/>
       <c r="I47" s="29"/>
       <c r="J47" s="33"/>
     </row>
-    <row r="48" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A48" s="122"/>
+    <row r="48" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A48" s="123"/>
       <c r="B48" s="45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C48" s="56">
         <v>2</v>
@@ -8642,20 +9080,22 @@
         <v>287</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="G48" s="29"/>
+        <v>246</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
       <c r="J48" s="33"/>
     </row>
-    <row r="49" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A49" s="122"/>
+    <row r="49" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A49" s="123"/>
       <c r="B49" s="45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C49" s="56">
         <v>2</v>
@@ -8664,20 +9104,22 @@
         <v>287</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="G49" s="29"/>
+        <v>249</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
       <c r="J49" s="33"/>
     </row>
-    <row r="50" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A50" s="122"/>
+    <row r="50" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A50" s="123"/>
       <c r="B50" s="45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C50" s="56">
         <v>2</v>
@@ -8686,20 +9128,22 @@
         <v>613</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="G50" s="29"/>
+        <v>252</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
       <c r="J50" s="33"/>
     </row>
-    <row r="51" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A51" s="122"/>
+    <row r="51" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A51" s="123"/>
       <c r="B51" s="45" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C51" s="55">
         <v>3</v>
@@ -8708,22 +9152,24 @@
         <v>308</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="G51" s="29"/>
+        <v>255</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
       <c r="J51" s="33"/>
     </row>
     <row r="52" spans="1:10" s="26" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A52" s="122" t="s">
-        <v>255</v>
+      <c r="A52" s="123" t="s">
+        <v>256</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C52" s="56">
         <v>2</v>
@@ -8732,20 +9178,22 @@
         <v>320</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="G52" s="29"/>
+        <v>259</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
       <c r="J52" s="33"/>
     </row>
-    <row r="53" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A53" s="122"/>
+    <row r="53" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A53" s="123"/>
       <c r="B53" s="45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C53" s="56">
         <v>2</v>
@@ -8754,20 +9202,22 @@
         <v>330</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="G53" s="29"/>
+        <v>261</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
       <c r="J53" s="33"/>
     </row>
-    <row r="54" spans="1:10" s="26" customFormat="1" ht="31.2">
-      <c r="A54" s="122"/>
+    <row r="54" spans="1:10" s="26" customFormat="1" ht="34">
+      <c r="A54" s="123"/>
       <c r="B54" s="45" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C54" s="56">
         <v>2</v>
@@ -8776,116 +9226,126 @@
         <v>327</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="G54" s="29"/>
+        <v>263</v>
+      </c>
+      <c r="G54" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
       <c r="J54" s="33"/>
     </row>
     <row r="55" spans="1:10" s="26" customFormat="1" ht="79.5" customHeight="1">
-      <c r="A55" s="122" t="s">
-        <v>263</v>
+      <c r="A55" s="123" t="s">
+        <v>264</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C55" s="56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D55" s="54">
         <v>287</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>267</v>
-      </c>
-      <c r="G55" s="29"/>
+        <v>268</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
       <c r="J55" s="33"/>
     </row>
-    <row r="56" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A56" s="122"/>
+    <row r="56" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A56" s="123"/>
       <c r="B56" s="45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D56" s="54">
         <v>255</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F56" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="G56" s="29"/>
+        <v>270</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H56" s="29"/>
       <c r="I56" s="29"/>
       <c r="J56" s="33"/>
     </row>
-    <row r="57" spans="1:10" s="26" customFormat="1" ht="46.8">
-      <c r="A57" s="122"/>
+    <row r="57" spans="1:10" s="26" customFormat="1" ht="51">
+      <c r="A57" s="123"/>
       <c r="B57" s="45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C57" s="56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D57" s="54">
         <v>522</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="G57" s="29"/>
+        <v>272</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H57" s="29"/>
       <c r="I57" s="29"/>
       <c r="J57" s="33"/>
     </row>
-    <row r="58" spans="1:10" s="26" customFormat="1" ht="93.6">
-      <c r="A58" s="122"/>
+    <row r="58" spans="1:10" s="26" customFormat="1" ht="85">
+      <c r="A58" s="123"/>
       <c r="B58" s="45" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C58" s="57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D58" s="58">
         <v>798</v>
       </c>
       <c r="E58" s="35"/>
       <c r="F58" s="37" t="s">
-        <v>273</v>
-      </c>
-      <c r="G58" s="36"/>
+        <v>274</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="H58" s="36"/>
       <c r="I58" s="36"/>
       <c r="J58" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -8906,25 +9366,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="40.88671875" style="59" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="60" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="60"/>
+    <col min="1" max="1" width="40.83203125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="26" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="60" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="60"/>
     <col min="6" max="6" width="70" style="26" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="36.109375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="36.1640625" style="26" customWidth="1"/>
     <col min="9" max="9" width="35.6640625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="42.88671875" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.88671875" style="26"/>
+    <col min="10" max="10" width="42.83203125" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="61" t="s">
         <v>20</v>
       </c>
@@ -8956,12 +9416,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="42">
+    <row r="2" spans="1:10" ht="44">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -8971,19 +9431,21 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>277</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A3" s="122" t="s">
-        <v>277</v>
+      <c r="A3" s="123" t="s">
+        <v>278</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C3" s="67">
         <v>1</v>
@@ -8995,17 +9457,19 @@
         <v>7.1</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="G3" s="29"/>
+        <v>280</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="46.8">
-      <c r="A4" s="122"/>
+    <row r="4" spans="1:10" ht="51">
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C4" s="67">
         <v>1</v>
@@ -9017,17 +9481,19 @@
         <v>7.1</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>282</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="122"/>
+    <row r="5" spans="1:10" ht="51">
+      <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C5" s="67">
         <v>1</v>
@@ -9039,17 +9505,19 @@
         <v>7.1</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>284</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="62.4">
-      <c r="A6" s="122"/>
+    <row r="6" spans="1:10" ht="68">
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C6" s="69">
         <v>2</v>
@@ -9061,19 +9529,21 @@
         <v>7.1</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>286</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>286</v>
+      <c r="A7" s="123" t="s">
+        <v>287</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C7" s="67">
         <v>1</v>
@@ -9085,17 +9555,19 @@
         <v>7.1</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>289</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="109.2">
-      <c r="A8" s="122"/>
+    <row r="8" spans="1:10" ht="102">
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C8" s="67">
         <v>1</v>
@@ -9107,17 +9579,19 @@
         <v>7.2</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>291</v>
+      </c>
+      <c r="G8" s="121" t="s">
+        <v>57</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="62.4">
-      <c r="A9" s="122"/>
+    <row r="9" spans="1:10" ht="68">
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C9" s="69">
         <v>2</v>
@@ -9127,17 +9601,19 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>293</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="122"/>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C10" s="69">
         <v>2</v>
@@ -9149,19 +9625,21 @@
         <v>7.1</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>295</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="48" customHeight="1">
-      <c r="A11" s="122" t="s">
-        <v>295</v>
+      <c r="A11" s="123" t="s">
+        <v>296</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C11" s="67">
         <v>1</v>
@@ -9170,20 +9648,22 @@
         <v>614</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>299</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="46.8">
-      <c r="A12" s="122"/>
+    <row r="12" spans="1:10" ht="34">
+      <c r="A12" s="123"/>
       <c r="B12" s="63" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C12" s="67">
         <v>1</v>
@@ -9192,20 +9672,22 @@
         <v>1004</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>301</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="62.4">
-      <c r="A13" s="122"/>
+    <row r="13" spans="1:10" ht="51">
+      <c r="A13" s="123"/>
       <c r="B13" s="63" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C13" s="67">
         <v>1</v>
@@ -9214,20 +9696,22 @@
         <v>16</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>303</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="31.2">
-      <c r="A14" s="122"/>
+    <row r="14" spans="1:10" ht="34">
+      <c r="A14" s="123"/>
       <c r="B14" s="63" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C14" s="67">
         <v>1</v>
@@ -9236,20 +9720,22 @@
         <v>16</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="G14" s="29"/>
+        <v>305</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" ht="93.6">
-      <c r="A15" s="122"/>
+    <row r="15" spans="1:10" ht="85">
+      <c r="A15" s="123"/>
       <c r="B15" s="63" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C15" s="67">
         <v>1</v>
@@ -9258,22 +9744,24 @@
         <v>16</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>307</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A16" s="122" t="s">
-        <v>307</v>
+      <c r="A16" s="123" t="s">
+        <v>308</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C16" s="69">
         <v>2</v>
@@ -9282,20 +9770,22 @@
         <v>290</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="G16" s="29"/>
+        <v>311</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" ht="31.2">
-      <c r="A17" s="122"/>
+    <row r="17" spans="1:10" ht="34">
+      <c r="A17" s="123"/>
       <c r="B17" s="63" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C17" s="69">
         <v>2</v>
@@ -9305,17 +9795,19 @@
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="G17" s="29"/>
+        <v>313</v>
+      </c>
+      <c r="G17" s="121" t="s">
+        <v>26</v>
+      </c>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" ht="46.8">
-      <c r="A18" s="122"/>
+    <row r="18" spans="1:10" ht="51">
+      <c r="A18" s="123"/>
       <c r="B18" s="63" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C18" s="69">
         <v>2</v>
@@ -9325,19 +9817,21 @@
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="G18" s="29"/>
+        <v>315</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
       <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A19" s="122" t="s">
-        <v>315</v>
+      <c r="A19" s="123" t="s">
+        <v>316</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C19" s="70">
         <v>3</v>
@@ -9346,20 +9840,22 @@
         <v>613</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="G19" s="29"/>
+        <v>319</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="33"/>
     </row>
-    <row r="20" spans="1:10" ht="46.8">
-      <c r="A20" s="122"/>
+    <row r="20" spans="1:10" ht="51">
+      <c r="A20" s="123"/>
       <c r="B20" s="63" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C20" s="70">
         <v>3</v>
@@ -9368,22 +9864,24 @@
         <v>613</v>
       </c>
       <c r="E20" s="68" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="G20" s="29"/>
+        <v>321</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
       <c r="J20" s="33"/>
     </row>
-    <row r="21" spans="1:10" ht="46.8">
+    <row r="21" spans="1:10" ht="51">
       <c r="A21" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C21" s="71">
         <v>1</v>
@@ -9393,9 +9891,11 @@
       </c>
       <c r="E21" s="72"/>
       <c r="F21" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="G21" s="36"/>
+        <v>324</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
       <c r="J21" s="38"/>
@@ -9437,21 +9937,21 @@
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="38.44140625" style="73" customWidth="1"/>
+    <col min="1" max="1" width="38.5" style="73" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="74" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="60" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="60"/>
+    <col min="3" max="3" width="12.5" style="60" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="60"/>
     <col min="6" max="6" width="68.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="26" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" style="26" customWidth="1"/>
     <col min="9" max="9" width="27.33203125" style="26" customWidth="1"/>
-    <col min="10" max="10" width="42.109375" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.88671875" style="26"/>
+    <col min="10" max="10" width="42.1640625" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="77" customFormat="1">
@@ -9487,11 +9987,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="122" t="s">
-        <v>324</v>
+      <c r="A2" s="123" t="s">
+        <v>325</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -9501,17 +10001,19 @@
       </c>
       <c r="E2" s="50"/>
       <c r="F2" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>327</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="122"/>
+    <row r="3" spans="1:10" ht="34">
+      <c r="A3" s="123"/>
       <c r="B3" s="78" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C3" s="67">
         <v>1</v>
@@ -9521,17 +10023,19 @@
       </c>
       <c r="E3" s="29"/>
       <c r="F3" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="G3" s="29"/>
+        <v>329</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="93.6">
-      <c r="A4" s="122"/>
+    <row r="4" spans="1:10" ht="85">
+      <c r="A4" s="123"/>
       <c r="B4" s="78" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C4" s="67">
         <v>1</v>
@@ -9541,17 +10045,19 @@
       </c>
       <c r="E4" s="29"/>
       <c r="F4" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>331</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="15.6">
-      <c r="A5" s="122"/>
+    <row r="5" spans="1:10" ht="17">
+      <c r="A5" s="123"/>
       <c r="B5" s="78" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C5" s="67">
         <v>1</v>
@@ -9561,19 +10067,19 @@
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="122"/>
+    <row r="6" spans="1:10" ht="34">
+      <c r="A6" s="123"/>
       <c r="B6" s="78" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C6" s="67">
         <v>1</v>
@@ -9583,19 +10089,21 @@
       </c>
       <c r="E6" s="29"/>
       <c r="F6" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>334</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>334</v>
+      <c r="A7" s="123" t="s">
+        <v>335</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C7" s="67">
         <v>1</v>
@@ -9605,17 +10113,19 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>337</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="46.8">
-      <c r="A8" s="122"/>
+    <row r="8" spans="1:10" ht="51">
+      <c r="A8" s="123"/>
       <c r="B8" s="78" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C8" s="67">
         <v>1</v>
@@ -9625,19 +10135,21 @@
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>339</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A9" s="122" t="s">
-        <v>339</v>
+      <c r="A9" s="123" t="s">
+        <v>340</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -9647,17 +10159,19 @@
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>342</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="62.4">
-      <c r="A10" s="122"/>
+    <row r="10" spans="1:10" ht="51">
+      <c r="A10" s="123"/>
       <c r="B10" s="78" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C10" s="67">
         <v>1</v>
@@ -9667,17 +10181,19 @@
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>344</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="62.4">
-      <c r="A11" s="122"/>
+    <row r="11" spans="1:10" ht="68">
+      <c r="A11" s="123"/>
       <c r="B11" s="78" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C11" s="79">
         <v>2</v>
@@ -9687,9 +10203,11 @@
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="37" t="s">
-        <v>345</v>
-      </c>
-      <c r="G11" s="36"/>
+        <v>346</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="38"/>
@@ -9716,6 +10234,446 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AMJ17"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" style="73" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="60" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="60"/>
+    <col min="6" max="6" width="97.1640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="26" customWidth="1"/>
+    <col min="8" max="8" width="36.1640625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="18" style="26" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
+      <c r="A1" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="48" customHeight="1">
+      <c r="A2" s="123" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2" s="83">
+        <v>2</v>
+      </c>
+      <c r="D2" s="47">
+        <v>311</v>
+      </c>
+      <c r="E2" s="65"/>
+      <c r="F2" s="80" t="s">
+        <v>409</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50" t="s">
+        <v>700</v>
+      </c>
+      <c r="J2" s="66"/>
+    </row>
+    <row r="3" spans="1:10" ht="34">
+      <c r="A3" s="123"/>
+      <c r="B3" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" s="69">
+        <v>2</v>
+      </c>
+      <c r="D3" s="54">
+        <v>311</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="81" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="34">
+      <c r="A4" s="123"/>
+      <c r="B4" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="69">
+        <v>2</v>
+      </c>
+      <c r="D4" s="54">
+        <v>311</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="81" t="s">
+        <v>412</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="33"/>
+    </row>
+    <row r="5" spans="1:10" ht="32.25" customHeight="1">
+      <c r="A5" s="123" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" s="67">
+        <v>1</v>
+      </c>
+      <c r="D5" s="54">
+        <v>310</v>
+      </c>
+      <c r="E5" s="68"/>
+      <c r="F5" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="1:10" ht="34">
+      <c r="A6" s="123"/>
+      <c r="B6" s="63" t="s">
+        <v>416</v>
+      </c>
+      <c r="C6" s="69">
+        <v>2</v>
+      </c>
+      <c r="D6" s="54">
+        <v>327</v>
+      </c>
+      <c r="E6" s="68"/>
+      <c r="F6" s="81" t="s">
+        <v>417</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29" t="s">
+        <v>701</v>
+      </c>
+      <c r="J6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" ht="34">
+      <c r="A7" s="123"/>
+      <c r="B7" s="63" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="69">
+        <v>2</v>
+      </c>
+      <c r="D7" s="54">
+        <v>326</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="81" t="s">
+        <v>419</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" ht="51">
+      <c r="A8" s="123"/>
+      <c r="B8" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="69">
+        <v>2</v>
+      </c>
+      <c r="D8" s="54">
+        <v>326</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="81" t="s">
+        <v>421</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="33"/>
+    </row>
+    <row r="9" spans="1:10" ht="51">
+      <c r="A9" s="123"/>
+      <c r="B9" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="C9" s="69">
+        <v>2</v>
+      </c>
+      <c r="D9" s="54">
+        <v>326</v>
+      </c>
+      <c r="E9" s="68"/>
+      <c r="F9" s="81" t="s">
+        <v>423</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="33"/>
+    </row>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="123"/>
+      <c r="B10" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="C10" s="69">
+        <v>2</v>
+      </c>
+      <c r="D10" s="54">
+        <v>326</v>
+      </c>
+      <c r="E10" s="68"/>
+      <c r="F10" s="81" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" ht="34">
+      <c r="A11" s="123"/>
+      <c r="B11" s="63" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" s="70">
+        <v>3</v>
+      </c>
+      <c r="D11" s="54">
+        <v>326</v>
+      </c>
+      <c r="E11" s="68"/>
+      <c r="F11" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="33"/>
+    </row>
+    <row r="12" spans="1:10" ht="34">
+      <c r="A12" s="123"/>
+      <c r="B12" s="63" t="s">
+        <v>428</v>
+      </c>
+      <c r="C12" s="70">
+        <v>3</v>
+      </c>
+      <c r="D12" s="54">
+        <v>385</v>
+      </c>
+      <c r="E12" s="68"/>
+      <c r="F12" s="81" t="s">
+        <v>429</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="33"/>
+    </row>
+    <row r="13" spans="1:10" ht="48" customHeight="1">
+      <c r="A13" s="123" t="s">
+        <v>430</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>431</v>
+      </c>
+      <c r="C13" s="69">
+        <v>2</v>
+      </c>
+      <c r="D13" s="54">
+        <v>338</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="81" t="s">
+        <v>432</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:10" ht="51">
+      <c r="A14" s="123"/>
+      <c r="B14" s="63" t="s">
+        <v>433</v>
+      </c>
+      <c r="C14" s="69">
+        <v>2</v>
+      </c>
+      <c r="D14" s="54">
+        <v>338</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="33"/>
+    </row>
+    <row r="15" spans="1:10" ht="34">
+      <c r="A15" s="123"/>
+      <c r="B15" s="63" t="s">
+        <v>435</v>
+      </c>
+      <c r="C15" s="70">
+        <v>3</v>
+      </c>
+      <c r="D15" s="54">
+        <v>338</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="81" t="s">
+        <v>436</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="33"/>
+    </row>
+    <row r="16" spans="1:10" ht="48" customHeight="1">
+      <c r="A16" s="123" t="s">
+        <v>437</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>438</v>
+      </c>
+      <c r="C16" s="69">
+        <v>2</v>
+      </c>
+      <c r="D16" s="54">
+        <v>798</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="33"/>
+    </row>
+    <row r="17" spans="1:10" ht="34">
+      <c r="A17" s="123"/>
+      <c r="B17" s="63" t="s">
+        <v>440</v>
+      </c>
+      <c r="C17" s="79">
+        <v>2</v>
+      </c>
+      <c r="D17" s="58">
+        <v>320</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="82" t="s">
+        <v>441</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G17" xr:uid="{00000000-0002-0000-0600-000000000000}">
+      <formula1>"Valid,Non-valid,Not Applicable"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ31"/>
   <sheetViews>
@@ -9723,20 +10681,20 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="53.33203125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="26" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="60"/>
+    <col min="2" max="2" width="11.5" style="26" customWidth="1"/>
+    <col min="3" max="5" width="8.83203125" style="60"/>
     <col min="6" max="6" width="60.6640625" style="26" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" style="26" customWidth="1"/>
     <col min="8" max="8" width="41.33203125" style="26" customWidth="1"/>
     <col min="9" max="9" width="35.33203125" style="26" customWidth="1"/>
     <col min="10" max="10" width="29" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.88671875" style="26"/>
+    <col min="11" max="1024" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="41" t="s">
         <v>20</v>
       </c>
@@ -9769,11 +10727,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="79.5" customHeight="1">
-      <c r="A2" s="122" t="s">
-        <v>346</v>
+      <c r="A2" s="123" t="s">
+        <v>347</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C2" s="64">
         <v>1</v>
@@ -9783,17 +10741,19 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>348</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>349</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="93.6">
-      <c r="A3" s="122"/>
+    <row r="3" spans="1:10" ht="97.5" customHeight="1">
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C3" s="67">
         <v>1</v>
@@ -9803,17 +10763,19 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>350</v>
-      </c>
-      <c r="G3" s="29"/>
+        <v>351</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="78">
-      <c r="A4" s="122"/>
+    <row r="4" spans="1:10" ht="85">
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C4" s="67">
         <v>1</v>
@@ -9823,17 +10785,19 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>352</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>353</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="109.2">
-      <c r="A5" s="122"/>
+    <row r="5" spans="1:10" ht="127.5" customHeight="1">
+      <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C5" s="67">
         <v>1</v>
@@ -9843,17 +10807,19 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>354</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>355</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="122"/>
+    <row r="6" spans="1:10" ht="51">
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C6" s="67">
         <v>1</v>
@@ -9863,19 +10829,21 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>356</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>357</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A7" s="122" t="s">
-        <v>357</v>
+    <row r="7" spans="1:10" ht="86.25" customHeight="1">
+      <c r="A7" s="123" t="s">
+        <v>358</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C7" s="67">
         <v>1</v>
@@ -9885,17 +10853,19 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>358</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>359</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="31.2">
-      <c r="A8" s="122"/>
+    <row r="8" spans="1:10" ht="34">
+      <c r="A8" s="123"/>
       <c r="B8" s="63" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C8" s="67">
         <v>1</v>
@@ -9905,17 +10875,19 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>360</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>361</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="31.2">
-      <c r="A9" s="122"/>
+    <row r="9" spans="1:10" ht="34">
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -9925,17 +10897,19 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>361</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>362</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="62.4">
-      <c r="A10" s="122"/>
+    <row r="10" spans="1:10" ht="51">
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C10" s="67">
         <v>1</v>
@@ -9945,17 +10919,19 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>363</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>364</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="46.8">
-      <c r="A11" s="122"/>
+    <row r="11" spans="1:10" ht="51">
+      <c r="A11" s="123"/>
       <c r="B11" s="63" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C11" s="67">
         <v>1</v>
@@ -9965,17 +10941,19 @@
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>364</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>365</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="62.4">
-      <c r="A12" s="122"/>
+    <row r="12" spans="1:10" ht="68">
+      <c r="A12" s="123"/>
       <c r="B12" s="63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C12" s="67">
         <v>1</v>
@@ -9985,17 +10963,19 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>365</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>366</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="62.4">
-      <c r="A13" s="122"/>
+    <row r="13" spans="1:10" ht="51">
+      <c r="A13" s="123"/>
       <c r="B13" s="63" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C13" s="67">
         <v>1</v>
@@ -10005,17 +10985,19 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>367</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>368</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="62.4">
-      <c r="A14" s="122"/>
+    <row r="14" spans="1:10" ht="51">
+      <c r="A14" s="123"/>
       <c r="B14" s="63" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="67">
         <v>1</v>
@@ -10025,19 +11007,21 @@
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="81" t="s">
-        <v>368</v>
-      </c>
-      <c r="G14" s="29"/>
+        <v>369</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="126.75" customHeight="1">
-      <c r="A15" s="122" t="s">
-        <v>369</v>
+      <c r="A15" s="123" t="s">
+        <v>370</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C15" s="67">
         <v>1</v>
@@ -10047,17 +11031,19 @@
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="81" t="s">
-        <v>371</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>372</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" ht="78">
-      <c r="A16" s="122"/>
+    <row r="16" spans="1:10" ht="68">
+      <c r="A16" s="123"/>
       <c r="B16" s="63" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C16" s="67">
         <v>1</v>
@@ -10067,17 +11053,19 @@
       </c>
       <c r="E16" s="68"/>
       <c r="F16" s="81" t="s">
-        <v>373</v>
-      </c>
-      <c r="G16" s="29"/>
+        <v>374</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" ht="62.4">
-      <c r="A17" s="122"/>
+    <row r="17" spans="1:10" ht="83.25" customHeight="1">
+      <c r="A17" s="123"/>
       <c r="B17" s="63" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C17" s="67">
         <v>1</v>
@@ -10087,17 +11075,19 @@
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="81" t="s">
-        <v>375</v>
-      </c>
-      <c r="G17" s="29"/>
+        <v>376</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" ht="78">
-      <c r="A18" s="122"/>
+    <row r="18" spans="1:10" ht="85">
+      <c r="A18" s="123"/>
       <c r="B18" s="63" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C18" s="67">
         <v>1</v>
@@ -10107,17 +11097,19 @@
       </c>
       <c r="E18" s="68"/>
       <c r="F18" s="81" t="s">
-        <v>377</v>
-      </c>
-      <c r="G18" s="29"/>
+        <v>378</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
       <c r="J18" s="33"/>
     </row>
-    <row r="19" spans="1:10" ht="93.6">
-      <c r="A19" s="122"/>
+    <row r="19" spans="1:10" ht="85">
+      <c r="A19" s="123"/>
       <c r="B19" s="63" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C19" s="67">
         <v>1</v>
@@ -10127,17 +11119,19 @@
       </c>
       <c r="E19" s="68"/>
       <c r="F19" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="G19" s="29"/>
+        <v>380</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="33"/>
     </row>
-    <row r="20" spans="1:10" ht="62.4">
-      <c r="A20" s="122"/>
+    <row r="20" spans="1:10" ht="68">
+      <c r="A20" s="123"/>
       <c r="B20" s="63" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C20" s="67">
         <v>1</v>
@@ -10147,17 +11141,19 @@
       </c>
       <c r="E20" s="68"/>
       <c r="F20" s="81" t="s">
-        <v>381</v>
-      </c>
-      <c r="G20" s="29"/>
+        <v>382</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
       <c r="J20" s="33"/>
     </row>
-    <row r="21" spans="1:10" ht="78">
-      <c r="A21" s="122"/>
+    <row r="21" spans="1:10" ht="68">
+      <c r="A21" s="123"/>
       <c r="B21" s="63" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C21" s="67">
         <v>1</v>
@@ -10167,17 +11163,19 @@
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="81" t="s">
-        <v>383</v>
-      </c>
-      <c r="G21" s="29"/>
+        <v>384</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="33"/>
     </row>
-    <row r="22" spans="1:10" ht="78">
-      <c r="A22" s="122"/>
+    <row r="22" spans="1:10" ht="85">
+      <c r="A22" s="123"/>
       <c r="B22" s="63" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C22" s="67">
         <v>1</v>
@@ -10187,17 +11185,19 @@
       </c>
       <c r="E22" s="68"/>
       <c r="F22" s="81" t="s">
-        <v>385</v>
-      </c>
-      <c r="G22" s="29"/>
+        <v>386</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
       <c r="J22" s="33"/>
     </row>
-    <row r="23" spans="1:10" ht="31.2">
-      <c r="A23" s="122"/>
+    <row r="23" spans="1:10" ht="34">
+      <c r="A23" s="123"/>
       <c r="B23" s="63" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C23" s="67">
         <v>1</v>
@@ -10207,17 +11207,19 @@
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="81" t="s">
-        <v>387</v>
-      </c>
-      <c r="G23" s="29"/>
+        <v>388</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:10" ht="46.8">
-      <c r="A24" s="122"/>
+    <row r="24" spans="1:10" ht="78.75" customHeight="1">
+      <c r="A24" s="123"/>
       <c r="B24" s="63" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C24" s="67">
         <v>1</v>
@@ -10227,19 +11229,21 @@
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="81" t="s">
-        <v>389</v>
-      </c>
-      <c r="G24" s="29"/>
+        <v>390</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
       <c r="J24" s="33"/>
     </row>
     <row r="25" spans="1:10" ht="48" customHeight="1">
-      <c r="A25" s="122" t="s">
-        <v>390</v>
+      <c r="A25" s="123" t="s">
+        <v>391</v>
       </c>
       <c r="B25" s="63" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C25" s="69">
         <v>2</v>
@@ -10249,17 +11253,19 @@
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="81" t="s">
-        <v>392</v>
-      </c>
-      <c r="G25" s="29"/>
+        <v>393</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
       <c r="J25" s="33"/>
     </row>
-    <row r="26" spans="1:10" ht="31.2">
-      <c r="A26" s="122"/>
+    <row r="26" spans="1:10" ht="34">
+      <c r="A26" s="123"/>
       <c r="B26" s="63" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C26" s="69">
         <v>2</v>
@@ -10269,17 +11275,19 @@
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="81" t="s">
-        <v>394</v>
-      </c>
-      <c r="G26" s="29"/>
+        <v>395</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
       <c r="J26" s="33"/>
     </row>
-    <row r="27" spans="1:10" ht="31.2">
-      <c r="A27" s="122"/>
+    <row r="27" spans="1:10" ht="34">
+      <c r="A27" s="123"/>
       <c r="B27" s="63" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C27" s="69">
         <v>2</v>
@@ -10289,19 +11297,21 @@
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="81" t="s">
-        <v>396</v>
-      </c>
-      <c r="G27" s="29"/>
+        <v>397</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A28" s="122" t="s">
-        <v>397</v>
+      <c r="A28" s="123" t="s">
+        <v>398</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C28" s="67">
         <v>1</v>
@@ -10311,17 +11321,19 @@
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="81" t="s">
-        <v>399</v>
-      </c>
-      <c r="G28" s="29"/>
+        <v>400</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="33"/>
     </row>
-    <row r="29" spans="1:10" ht="62.4">
-      <c r="A29" s="122"/>
+    <row r="29" spans="1:10" ht="68">
+      <c r="A29" s="123"/>
       <c r="B29" s="63" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C29" s="67">
         <v>1</v>
@@ -10331,17 +11343,19 @@
       </c>
       <c r="E29" s="28"/>
       <c r="F29" s="81" t="s">
-        <v>401</v>
-      </c>
-      <c r="G29" s="29"/>
+        <v>402</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
       <c r="J29" s="33"/>
     </row>
-    <row r="30" spans="1:10" ht="46.8">
-      <c r="A30" s="122"/>
+    <row r="30" spans="1:10" ht="51">
+      <c r="A30" s="123"/>
       <c r="B30" s="63" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C30" s="67">
         <v>1</v>
@@ -10351,17 +11365,19 @@
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="81" t="s">
-        <v>403</v>
-      </c>
-      <c r="G30" s="29"/>
+        <v>404</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" spans="1:10" ht="46.8">
-      <c r="A31" s="122"/>
+    <row r="31" spans="1:10" ht="51">
+      <c r="A31" s="123"/>
       <c r="B31" s="63" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C31" s="71">
         <v>1</v>
@@ -10371,9 +11387,11 @@
       </c>
       <c r="E31" s="35"/>
       <c r="F31" s="82" t="s">
-        <v>405</v>
-      </c>
-      <c r="G31" s="36"/>
+        <v>406</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>26</v>
+      </c>
       <c r="H31" s="36"/>
       <c r="I31" s="36"/>
       <c r="J31" s="38"/>
@@ -10401,410 +11419,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AMJ17"/>
-  <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
-  <cols>
-    <col min="1" max="1" width="35.33203125" style="73" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="60" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="60"/>
-    <col min="6" max="6" width="97.109375" style="26" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="26" customWidth="1"/>
-    <col min="8" max="8" width="36.109375" style="26" customWidth="1"/>
-    <col min="9" max="9" width="18" style="26" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.88671875" style="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
-      <c r="A1" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="122" t="s">
-        <v>406</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>407</v>
-      </c>
-      <c r="C2" s="83">
-        <v>2</v>
-      </c>
-      <c r="D2" s="47">
-        <v>311</v>
-      </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="80" t="s">
-        <v>408</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="66"/>
-    </row>
-    <row r="3" spans="1:10" ht="31.2">
-      <c r="A3" s="122"/>
-      <c r="B3" s="63" t="s">
-        <v>409</v>
-      </c>
-      <c r="C3" s="69">
-        <v>2</v>
-      </c>
-      <c r="D3" s="54">
-        <v>311</v>
-      </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="81" t="s">
-        <v>410</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="33"/>
-    </row>
-    <row r="4" spans="1:10" ht="46.8">
-      <c r="A4" s="122"/>
-      <c r="B4" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="69">
-        <v>2</v>
-      </c>
-      <c r="D4" s="54">
-        <v>311</v>
-      </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="81" t="s">
-        <v>411</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="33"/>
-    </row>
-    <row r="5" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A5" s="122" t="s">
-        <v>412</v>
-      </c>
-      <c r="B5" s="63" t="s">
-        <v>413</v>
-      </c>
-      <c r="C5" s="67">
-        <v>1</v>
-      </c>
-      <c r="D5" s="54">
-        <v>310</v>
-      </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="81" t="s">
-        <v>414</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="33"/>
-    </row>
-    <row r="6" spans="1:10" ht="46.8">
-      <c r="A6" s="122"/>
-      <c r="B6" s="63" t="s">
-        <v>415</v>
-      </c>
-      <c r="C6" s="69">
-        <v>2</v>
-      </c>
-      <c r="D6" s="54">
-        <v>327</v>
-      </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="81" t="s">
-        <v>416</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="1:10" ht="31.2">
-      <c r="A7" s="122"/>
-      <c r="B7" s="63" t="s">
-        <v>417</v>
-      </c>
-      <c r="C7" s="69">
-        <v>2</v>
-      </c>
-      <c r="D7" s="54">
-        <v>326</v>
-      </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="81" t="s">
-        <v>418</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="1:10" ht="46.8">
-      <c r="A8" s="122"/>
-      <c r="B8" s="63" t="s">
-        <v>419</v>
-      </c>
-      <c r="C8" s="69">
-        <v>2</v>
-      </c>
-      <c r="D8" s="54">
-        <v>326</v>
-      </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="81" t="s">
-        <v>420</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="1:10" ht="46.8">
-      <c r="A9" s="122"/>
-      <c r="B9" s="63" t="s">
-        <v>421</v>
-      </c>
-      <c r="C9" s="69">
-        <v>2</v>
-      </c>
-      <c r="D9" s="54">
-        <v>326</v>
-      </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="81" t="s">
-        <v>422</v>
-      </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="1:10" ht="46.8">
-      <c r="A10" s="122"/>
-      <c r="B10" s="63" t="s">
-        <v>423</v>
-      </c>
-      <c r="C10" s="69">
-        <v>2</v>
-      </c>
-      <c r="D10" s="54">
-        <v>326</v>
-      </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="81" t="s">
-        <v>424</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:10" ht="31.2">
-      <c r="A11" s="122"/>
-      <c r="B11" s="63" t="s">
-        <v>425</v>
-      </c>
-      <c r="C11" s="70">
-        <v>3</v>
-      </c>
-      <c r="D11" s="54">
-        <v>326</v>
-      </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="81" t="s">
-        <v>426</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:10" ht="31.2">
-      <c r="A12" s="122"/>
-      <c r="B12" s="63" t="s">
-        <v>427</v>
-      </c>
-      <c r="C12" s="70">
-        <v>3</v>
-      </c>
-      <c r="D12" s="54">
-        <v>385</v>
-      </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="81" t="s">
-        <v>428</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:10" ht="48" customHeight="1">
-      <c r="A13" s="122" t="s">
-        <v>429</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>430</v>
-      </c>
-      <c r="C13" s="69">
-        <v>2</v>
-      </c>
-      <c r="D13" s="54">
-        <v>338</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="81" t="s">
-        <v>431</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="33"/>
-    </row>
-    <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="122"/>
-      <c r="B14" s="63" t="s">
-        <v>432</v>
-      </c>
-      <c r="C14" s="69">
-        <v>2</v>
-      </c>
-      <c r="D14" s="54">
-        <v>338</v>
-      </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="81" t="s">
-        <v>433</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="33"/>
-    </row>
-    <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="122"/>
-      <c r="B15" s="63" t="s">
-        <v>434</v>
-      </c>
-      <c r="C15" s="70">
-        <v>3</v>
-      </c>
-      <c r="D15" s="54">
-        <v>338</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="81" t="s">
-        <v>435</v>
-      </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="33"/>
-    </row>
-    <row r="16" spans="1:10" ht="48" customHeight="1">
-      <c r="A16" s="122" t="s">
-        <v>436</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>437</v>
-      </c>
-      <c r="C16" s="69">
-        <v>2</v>
-      </c>
-      <c r="D16" s="54">
-        <v>798</v>
-      </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="81" t="s">
-        <v>438</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="33"/>
-    </row>
-    <row r="17" spans="1:10" ht="46.8">
-      <c r="A17" s="122"/>
-      <c r="B17" s="63" t="s">
-        <v>439</v>
-      </c>
-      <c r="C17" s="79">
-        <v>2</v>
-      </c>
-      <c r="D17" s="58">
-        <v>320</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="38"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A17"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G17" xr:uid="{00000000-0002-0000-0600-000000000000}">
-      <formula1>"Valid,Non-valid,Not Applicable"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AMJ14"/>
@@ -10813,21 +11427,21 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" style="73" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="26" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="60" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="60"/>
+    <col min="1" max="1" width="31.5" style="73" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="60" customWidth="1"/>
+    <col min="4" max="5" width="8.83203125" style="60"/>
     <col min="6" max="6" width="80.33203125" style="26" customWidth="1"/>
     <col min="7" max="7" width="16.6640625" style="26" customWidth="1"/>
     <col min="8" max="8" width="31" style="26" customWidth="1"/>
     <col min="9" max="9" width="24" style="26" customWidth="1"/>
-    <col min="10" max="10" width="35.109375" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.88671875" style="26"/>
+    <col min="10" max="10" width="35.1640625" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="88" customFormat="1">
+    <row r="1" spans="1:10" s="88" customFormat="1" ht="22">
       <c r="A1" s="84" t="s">
         <v>20</v>
       </c>
@@ -10860,11 +11474,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1">
-      <c r="A2" s="122" t="s">
-        <v>441</v>
+      <c r="A2" s="123" t="s">
+        <v>442</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C2" s="89">
         <v>1</v>
@@ -10874,17 +11488,19 @@
       </c>
       <c r="E2" s="91"/>
       <c r="F2" s="92" t="s">
-        <v>442</v>
-      </c>
-      <c r="G2" s="93"/>
+        <v>443</v>
+      </c>
+      <c r="G2" s="93" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="93"/>
       <c r="I2" s="93"/>
       <c r="J2" s="94"/>
     </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="122"/>
+    <row r="3" spans="1:10" ht="51">
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C3" s="67">
         <v>1</v>
@@ -10894,17 +11510,19 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>443</v>
-      </c>
-      <c r="G3" s="29"/>
+        <v>444</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="62.4">
-      <c r="A4" s="122"/>
+    <row r="4" spans="1:10" ht="51">
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C4" s="69">
         <v>2</v>
@@ -10914,17 +11532,19 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>445</v>
-      </c>
-      <c r="G4" s="29"/>
+        <v>446</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="46.8">
-      <c r="A5" s="122"/>
+    <row r="5" spans="1:10" ht="51">
+      <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C5" s="69">
         <v>2</v>
@@ -10934,19 +11554,21 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>447</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>448</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1">
-      <c r="A6" s="122" t="s">
-        <v>448</v>
+      <c r="A6" s="123" t="s">
+        <v>449</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C6" s="69">
         <v>2</v>
@@ -10956,17 +11578,19 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>449</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>450</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="46.8">
-      <c r="A7" s="122"/>
+    <row r="7" spans="1:10" ht="34">
+      <c r="A7" s="123"/>
       <c r="B7" s="63" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C7" s="69">
         <v>2</v>
@@ -10976,19 +11600,21 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>451</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>452</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="48" customHeight="1">
-      <c r="A8" s="122" t="s">
-        <v>452</v>
+      <c r="A8" s="123" t="s">
+        <v>453</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C8" s="69">
         <v>2</v>
@@ -10998,17 +11624,19 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>454</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>455</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="122"/>
+    <row r="9" spans="1:10" ht="17">
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C9" s="69">
         <v>2</v>
@@ -11018,19 +11646,19 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G9" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="122"/>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C10" s="69">
         <v>2</v>
@@ -11040,17 +11668,21 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>458</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>459</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="I10" s="29" t="s">
+        <v>707</v>
+      </c>
       <c r="J10" s="33"/>
     </row>
-    <row r="11" spans="1:10" ht="62.4">
-      <c r="A11" s="122"/>
+    <row r="11" spans="1:10" ht="51">
+      <c r="A11" s="123"/>
       <c r="B11" s="63" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C11" s="69">
         <v>2</v>
@@ -11058,19 +11690,21 @@
       <c r="D11" s="28"/>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>460</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>461</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="63.75" customHeight="1">
-      <c r="A12" s="122" t="s">
-        <v>461</v>
+      <c r="A12" s="123" t="s">
+        <v>462</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C12" s="67">
         <v>1</v>
@@ -11080,17 +11714,19 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>463</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>464</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="46.8">
-      <c r="A13" s="122"/>
+    <row r="13" spans="1:10" ht="51">
+      <c r="A13" s="123"/>
       <c r="B13" s="63" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C13" s="69">
         <v>2</v>
@@ -11100,17 +11736,19 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>465</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>466</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="122"/>
+    <row r="14" spans="1:10" ht="34">
+      <c r="A14" s="123"/>
       <c r="B14" s="63" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C14" s="79">
         <v>2</v>
@@ -11120,9 +11758,11 @@
       </c>
       <c r="E14" s="72"/>
       <c r="F14" s="82" t="s">
-        <v>467</v>
-      </c>
-      <c r="G14" s="36"/>
+        <v>468</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
       <c r="J14" s="38"/>
@@ -11154,23 +11794,23 @@
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="30.6640625" style="73" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="26"/>
-    <col min="3" max="5" width="8.88671875" style="60"/>
+    <col min="2" max="2" width="8.83203125" style="26"/>
+    <col min="3" max="5" width="8.83203125" style="60"/>
     <col min="6" max="6" width="93" style="26" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" style="26" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="30.88671875" style="26" customWidth="1"/>
-    <col min="11" max="1024" width="8.88671875" style="26"/>
+    <col min="7" max="7" width="12.5" style="26" customWidth="1"/>
+    <col min="8" max="8" width="35.83203125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" style="26" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" style="26" customWidth="1"/>
+    <col min="11" max="1024" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="44" customFormat="1" ht="42">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="44">
       <c r="A1" s="95" t="s">
         <v>20</v>
       </c>
@@ -11203,11 +11843,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A2" s="122" t="s">
-        <v>468</v>
+      <c r="A2" s="123" t="s">
+        <v>469</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C2" s="83">
         <v>2</v>
@@ -11217,17 +11857,19 @@
       </c>
       <c r="E2" s="65"/>
       <c r="F2" s="80" t="s">
-        <v>470</v>
-      </c>
-      <c r="G2" s="50"/>
+        <v>471</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="66"/>
     </row>
-    <row r="3" spans="1:10" ht="46.8">
-      <c r="A3" s="122"/>
+    <row r="3" spans="1:10" ht="34">
+      <c r="A3" s="123"/>
       <c r="B3" s="63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C3" s="69">
         <v>2</v>
@@ -11237,17 +11879,19 @@
       </c>
       <c r="E3" s="68"/>
       <c r="F3" s="81" t="s">
-        <v>472</v>
-      </c>
-      <c r="G3" s="29"/>
+        <v>473</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="33"/>
     </row>
-    <row r="4" spans="1:10" ht="31.2">
-      <c r="A4" s="122"/>
+    <row r="4" spans="1:10" ht="153">
+      <c r="A4" s="123"/>
       <c r="B4" s="63" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C4" s="69">
         <v>2</v>
@@ -11257,17 +11901,21 @@
       </c>
       <c r="E4" s="68"/>
       <c r="F4" s="81" t="s">
-        <v>474</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+        <v>475</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31" t="s">
+        <v>476</v>
+      </c>
       <c r="J4" s="33"/>
     </row>
-    <row r="5" spans="1:10" ht="31.2">
-      <c r="A5" s="122"/>
+    <row r="5" spans="1:10" ht="34">
+      <c r="A5" s="123"/>
       <c r="B5" s="63" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C5" s="69">
         <v>2</v>
@@ -11277,17 +11925,19 @@
       </c>
       <c r="E5" s="68"/>
       <c r="F5" s="81" t="s">
-        <v>476</v>
-      </c>
-      <c r="G5" s="29"/>
+        <v>478</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="31.2">
-      <c r="A6" s="122"/>
+    <row r="6" spans="1:10" ht="17">
+      <c r="A6" s="123"/>
       <c r="B6" s="63" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C6" s="70">
         <v>3</v>
@@ -11297,17 +11947,21 @@
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="81" t="s">
-        <v>478</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>480</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="I6" s="29" t="s">
+        <v>481</v>
+      </c>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="122"/>
+    <row r="7" spans="1:10" ht="17">
+      <c r="A7" s="123"/>
       <c r="B7" s="63" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="C7" s="70">
         <v>3</v>
@@ -11317,19 +11971,21 @@
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="81" t="s">
-        <v>480</v>
-      </c>
-      <c r="G7" s="29"/>
+        <v>483</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A8" s="122" t="s">
-        <v>481</v>
+      <c r="A8" s="123" t="s">
+        <v>484</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C8" s="67">
         <v>1</v>
@@ -11339,17 +11995,19 @@
       </c>
       <c r="E8" s="68"/>
       <c r="F8" s="81" t="s">
-        <v>483</v>
-      </c>
-      <c r="G8" s="29"/>
+        <v>486</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="31.2">
-      <c r="A9" s="122"/>
+    <row r="9" spans="1:10" ht="34">
+      <c r="A9" s="123"/>
       <c r="B9" s="63" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C9" s="67">
         <v>1</v>
@@ -11359,17 +12017,19 @@
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81" t="s">
-        <v>485</v>
-      </c>
-      <c r="G9" s="29"/>
+        <v>488</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="31.2">
-      <c r="A10" s="122"/>
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="123"/>
       <c r="B10" s="63" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="C10" s="67">
         <v>1</v>
@@ -11379,19 +12039,21 @@
       </c>
       <c r="E10" s="68"/>
       <c r="F10" s="81" t="s">
-        <v>487</v>
-      </c>
-      <c r="G10" s="29"/>
+        <v>490</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="32.25" customHeight="1">
-      <c r="A11" s="122" t="s">
-        <v>488</v>
+      <c r="A11" s="123" t="s">
+        <v>491</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C11" s="67">
         <v>1</v>
@@ -11401,17 +12063,21 @@
       </c>
       <c r="E11" s="68"/>
       <c r="F11" s="81" t="s">
-        <v>490</v>
-      </c>
-      <c r="G11" s="29"/>
+        <v>493</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="I11" s="29" t="s">
+        <v>494</v>
+      </c>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="122"/>
+    <row r="12" spans="1:10" ht="17">
+      <c r="A12" s="123"/>
       <c r="B12" s="63" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C12" s="67">
         <v>1</v>
@@ -11421,17 +12087,19 @@
       </c>
       <c r="E12" s="68"/>
       <c r="F12" s="81" t="s">
-        <v>492</v>
-      </c>
-      <c r="G12" s="29"/>
+        <v>496</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="46.8">
-      <c r="A13" s="122"/>
+    <row r="13" spans="1:10" ht="34">
+      <c r="A13" s="123"/>
       <c r="B13" s="63" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C13" s="67">
         <v>1</v>
@@ -11441,17 +12109,21 @@
       </c>
       <c r="E13" s="68"/>
       <c r="F13" s="81" t="s">
-        <v>494</v>
-      </c>
-      <c r="G13" s="29"/>
+        <v>498</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="I13" s="29" t="s">
+        <v>693</v>
+      </c>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="46.8">
-      <c r="A14" s="122"/>
+    <row r="14" spans="1:10" ht="51">
+      <c r="A14" s="123"/>
       <c r="B14" s="63" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C14" s="67">
         <v>1</v>
@@ -11461,17 +12133,19 @@
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="81" t="s">
-        <v>496</v>
-      </c>
-      <c r="G14" s="29"/>
+        <v>500</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" ht="31.2">
-      <c r="A15" s="122"/>
+    <row r="15" spans="1:10" ht="34">
+      <c r="A15" s="123"/>
       <c r="B15" s="63" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C15" s="69">
         <v>2</v>
@@ -11481,17 +12155,19 @@
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="81" t="s">
-        <v>498</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>502</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" ht="31.2">
-      <c r="A16" s="122"/>
+    <row r="16" spans="1:10" ht="34">
+      <c r="A16" s="123"/>
       <c r="B16" s="63" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C16" s="69">
         <v>2</v>
@@ -11501,17 +12177,19 @@
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="81" t="s">
-        <v>500</v>
-      </c>
-      <c r="G16" s="29"/>
+        <v>504</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" spans="1:10" ht="46.8">
-      <c r="A17" s="122"/>
+    <row r="17" spans="1:10" ht="51">
+      <c r="A17" s="123"/>
       <c r="B17" s="63" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C17" s="69">
         <v>2</v>
@@ -11521,17 +12199,21 @@
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="81" t="s">
-        <v>502</v>
-      </c>
-      <c r="G17" s="29"/>
+        <v>506</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="I17" s="29" t="s">
+        <v>696</v>
+      </c>
       <c r="J17" s="33"/>
     </row>
-    <row r="18" spans="1:10" ht="31.2">
-      <c r="A18" s="122"/>
+    <row r="18" spans="1:10" ht="34">
+      <c r="A18" s="123"/>
       <c r="B18" s="63" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C18" s="79">
         <v>2</v>
@@ -11541,9 +12223,11 @@
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="82" t="s">
-        <v>504</v>
-      </c>
-      <c r="G18" s="36"/>
+        <v>508</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="38"/>
